--- a/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="目录" sheetId="1" r:id="rId1"/>
+    <sheet name="对局结算" sheetId="2" r:id="rId2"/>
+    <sheet name="副本结算" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,9 +25,1314 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="341">
+  <si>
+    <t>caseID</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
+    <t>测试点描述</t>
+  </si>
+  <si>
+    <t>step No.</t>
+  </si>
+  <si>
+    <t>操作步骤</t>
+  </si>
+  <si>
+    <t>数据选择</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>P/F</t>
+  </si>
+  <si>
+    <t>表单编号</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局结算规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置对局1可掉落内容为A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置对局2可掉落内容为B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表中包括副本对局中可掉落的全部道具及全部宝箱道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A在掉落列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B在掉落列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本宝箱1可掉落内容为C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本宝箱2可掉落内容为D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C在掉落列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D在掉落列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家进入副本，查看服务端掉落列表生成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X配置在宝箱掉落列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要服务端or客户端log支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看玩家掉落Y是否配置在对局掉落列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y配置在对局掉落列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行掉落验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家通关整个副本，查看副本结算时，客户端与服务段验证情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看服务端记录情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局结算规则-副本失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家在副本中开启宝箱，获得掉落X，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看掉落X是否配置在宝箱掉落列表中</t>
+  </si>
+  <si>
+    <t>查看客户端中玩家背包中是否获得掉落X</t>
+  </si>
+  <si>
+    <t>玩家背包中无掉落X</t>
+  </si>
+  <si>
+    <t>玩家进入对局，对局胜利后，获得掉落情况为Y,查看</t>
+  </si>
+  <si>
+    <t>查看客户端中玩家背包中是否获得掉落Y</t>
+  </si>
+  <si>
+    <t>玩家背包中无掉落</t>
+  </si>
+  <si>
+    <t>验证通过后，查看玩家掉落获得情况（设玩家宝箱获得掉落情况为P，对局获得掉落情况为Q）</t>
+  </si>
+  <si>
+    <t>玩家获得全部掉落即P+Q</t>
+  </si>
+  <si>
+    <t>查看客户端背包中掉落</t>
+  </si>
+  <si>
+    <t>玩家获得掉落A+B</t>
+  </si>
+  <si>
+    <t>需要知道roll到了哪些，log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局结算规则-主动退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家副本中获得宝箱掉落情况为A，已通过对局胜利获得掉落情况为B，玩家主动退出副本，查看掉落获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局结算规则-数据异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家副本中获得宝箱掉落情况为A，已通过对局胜利获得掉落情况为B，进行副本结算时，服务端验证不符，查看掉落获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm工具改掉落，log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看客户端表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录帐号异常情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制玩家下线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局结算规则-结束进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家副本中获得宝箱掉落情况为A，已通过对局胜利获得掉落情况为B，副本结算前玩家结束进程，重新登录游戏，查看掉落获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未获得任何奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局结算规则-服务器验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X在对局A的掉落范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X不在对局A的掉落范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证通过，记录获得道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证失败，记录帐号异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家在副本某个对局A中，客户端分别记录获得奖励X，查看副本结算时服务器验证情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家在副本中，客户端记录玩家共获得奖励Y，查看副本结算时服务器验证情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y不在副本的预期掉落范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y在副本的预期掉落范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证失败，记录账号异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家副本中获得宝箱掉落情况为A，已通过对局胜利获得掉落情况为B，玩家达到副本失败条件，查看掉落获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳结算规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家进入副本，查看疲劳消耗情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入副本后立即消耗1点疲劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家通过一定数量X的对局后，进行副本结算，查看玩家疲劳消耗情况（设副本总对局数为Y，副本消耗总疲劳为Z）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X=0,Y=2,Z=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X=1,Y=2,Z=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不消耗疲劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次消耗疲劳2点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X=1,Y=2,Z=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次消耗疲劳3点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次消耗疲劳=(X/Y)*(Z-1)，向上取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X=2，Y=2，Z=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次消耗疲劳5点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm改掉落，log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置对局中怪物A的掉落列表为X，怪物B的掉落列表为Y，怪物C的掉落列表为Z，击杀怪物查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀怪物A，查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀怪物B，查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀怪物C，查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落奖励在掉落列表X范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落奖励在掉落列表Y范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落奖励在掉落列表Z范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复进入对局，击杀怪物，查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落奖励总在掉落列表X范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落奖励总在掉落列表Y范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落奖励总在掉落列表Z范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录对局奖励为A，无额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中，击杀怪物，查看对局胜利结算后，对局奖励判断情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中击杀1只怪物，怪物掉落奖励A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中击杀多只怪物，怪物总共掉落奖励B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录对局奖励为B，无额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落-对局结算奖励计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落-击杀怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物掉落金钱在11-13之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次击杀怪物，查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物掉落金钱11，12，13的概率相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落金钱概率为50%，击杀怪物A查看掉落金钱几率情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物掉落金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物未掉落金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数&gt;0.5?程序待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数&lt;0.5?程序待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱掉落率在50%左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次击杀怪物A，查看金钱掉率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落金钱-配置错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱掉率为100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落金钱100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落金钱，其中配置min&gt;max，击杀怪物A查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min=100,max=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min=20,max=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落金钱20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落金钱值为min的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次击杀怪物A，查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物掉落经验在11-13之间</t>
+  </si>
+  <si>
+    <t>怪物掉落经验11，12，13的概率相同</t>
+  </si>
+  <si>
+    <t>对局掉落经验-配置错误</t>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落经验，其中配置min&gt;max，击杀怪物A查看掉落情况</t>
+  </si>
+  <si>
+    <t>掉落经验值为min的取值</t>
+  </si>
+  <si>
+    <t>掉落经验100</t>
+  </si>
+  <si>
+    <t>掉落经验20</t>
+  </si>
+  <si>
+    <t>对局掉落道具</t>
+  </si>
+  <si>
+    <t>对局掉落道具组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落金钱，掉落区间为[11，13]，击杀怪物A查看掉落情况</t>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落经验，掉落区间为[11，13]，击杀怪物A查看掉落情况</t>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落道具组X，掉落概率为100%，掉落次数区间为[0，2]，击杀怪物A，查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次击杀怪物，查看道具组掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具组X次数在0-2之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具组次数在0，1，2的概率相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落道具组X，掉落概率为20%，击杀怪物A，查看掉落道具组几率情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数&gt;0.2?程序待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数&lt;0.2?程序待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物掉落道具组X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物未掉落道具组X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次击杀怪物A，查看道具组X的掉率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉率在20%左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落道具组-配置错误</t>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落道具组X，掉率100%，其中配置min&gt;max，击杀怪物A查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具组X次数为min的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min=5，max=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min=4，max=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具组X次数为5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具组X次数为3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具组X值为min的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次击杀怪物，查看道具掉落情况</t>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落道具X，掉落概率为20%，击杀怪物A，查看掉落道具几率情况</t>
+  </si>
+  <si>
+    <t>怪物掉落道具X</t>
+  </si>
+  <si>
+    <t>怪物未掉落道具X</t>
+  </si>
+  <si>
+    <t>多次击杀怪物A，查看道具X的掉率</t>
+  </si>
+  <si>
+    <t>对局掉落道具-配置错误</t>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落道具X，掉率100%，其中配置min&gt;max，击杀怪物A查看掉落情况</t>
+  </si>
+  <si>
+    <t>掉落道具X值为min的取值</t>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落道具X，掉落概率为100%，掉落数量区间为[0，2]，击杀怪物A，查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具X数量在0-2之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具数量在0，1，2的概率相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具X数量为min的取值</t>
+  </si>
+  <si>
+    <t>掉落道具X数量为5次</t>
+  </si>
+  <si>
+    <t>掉落道具X数量为3</t>
+  </si>
+  <si>
+    <t>道具组掉落道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落道具组-道具组独立掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落多个道具组X,Y,Z，掉落概率分别为100%，50%，30%，击杀怪物A，查看掉落道具组几率情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次击杀怪物A，查看道具组X掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次击杀怪物A，查看道具组Z掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次击杀怪物A，查看道具组Y掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具组X独立掉落，掉率100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XYZ按照概率独立掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具组Y独立掉落，掉率50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具组Z独立掉落，掉率30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落道具-道具独立掉落</t>
+  </si>
+  <si>
+    <t>配置对局中怪物A掉落多个道具X,Y,Z，掉落概率分别为100%，50%，30%，击杀怪物A，查看掉落道具几率情况</t>
+  </si>
+  <si>
+    <t>多次击杀怪物A，查看道具X掉落情况</t>
+  </si>
+  <si>
+    <t>道具X独立掉落，掉率100%</t>
+  </si>
+  <si>
+    <t>多次击杀怪物A，查看道具Y掉落情况</t>
+  </si>
+  <si>
+    <t>道具Y独立掉落，掉率50%</t>
+  </si>
+  <si>
+    <t>多次击杀怪物A，查看道具Z掉落情况</t>
+  </si>
+  <si>
+    <t>道具Z独立掉落，掉率30%</t>
+  </si>
+  <si>
+    <t>只掉落XYZ中的一种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次掉落道具组A，查看道具X掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置道具组A中掉落道具X,Y,Z权重分别为10，20，30，掉落道具组A,查看掉落道具种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具X掉落概率约为10/60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次掉落道具组A，查看道具Y掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次掉落道具组A，查看道具Z掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具组掉落道具-数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具组A中的道具X，查看道具X掉落数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置掉落数量为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置掉落数量为5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落1个X道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落5个X道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落怪物逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落整只怪物X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置过程中，将道具id配置为不同内容，查看掉落该道具A时，掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置道具id为怪物X碎片id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置道具id为怪物x的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落怪物x的碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置道具id为道具x的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本宝箱掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待和程序确定是不是一个逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家达到副本通关条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家对局失败，副本失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家未达到副本通关条件，副本失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家主动退出副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家结束进程后，重新登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家获得副本额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家未获得副本额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本中，玩家触发副本结算，查看服务端副本额外奖励获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看客户端背包中奖励情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励-金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置副本X中金钱获得数量为M，通关副本查看额外奖励获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置X为普通副本id，M配置为100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置X为精英副本id，M配置为100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置X为boss副本？id，M配置为500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本X后，获得金钱100</t>
+  </si>
+  <si>
+    <t>通关副本X后，获得金钱500</t>
+  </si>
+  <si>
+    <t>通关副本X后，怪物获得经验100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本X后，怪物获得经验500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家携带3只怪物，副本通关时1只存活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家携带3只怪物，副本通关时均存活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家携带6只怪物，副本通关时均存活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家携带6只怪物，副本通关时场上3只存活，场下3只死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家携带6只怪物，副本通关时存活2只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每只怪物均获得M经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励-怪物经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励-人物经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置副本X中人物经验获得数量为M，通关副本查看额外奖励获得情况</t>
+  </si>
+  <si>
+    <t>通关副本X后，获得人物经验100</t>
+  </si>
+  <si>
+    <t>通关副本X后，获得人物经验500</t>
+  </si>
+  <si>
+    <t>配置副本X中怪物经验获得数量为M，通关副本查看额外奖励获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励怪物经验为M，查看怪物获得经验分配情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励-道具</t>
+  </si>
+  <si>
+    <t>配置副本X中可获得道具id为M，通关副本查看额外奖励获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本后，可获得道具M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置道具M掉落数量为[1,3]，查看道具掉落数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具在1-3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物掉落道具为1，2，3个的概率相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次通关副本X，查看道具M的掉落数量情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励-道具配置错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置副本额外奖励道具M，其中配置min&gt;max，通关副本后，查看掉落情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具X的个数为min的取值</t>
+  </si>
+  <si>
+    <t>获得道具X的个数为5次</t>
+  </si>
+  <si>
+    <t>获得道具X的个数为3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具X的个数为min的取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本附加奖励&amp;翻牌规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励-怪物剩余数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本，满足额外奖励条件，查看获得评分情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分为1星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分为3星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本，满足目标达成关系x，怪物剩余不同数量时，查看评分情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据达成条件，计算评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分为2星</t>
+  </si>
+  <si>
+    <t>玩家携带怪物3只，通关副本时存活1只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家携带怪物5只，通关副本时存活5只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算评分时按照5只怪物计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家携带怪物5只，通关副本时存活3只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算评分时按照3只怪物计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算评分时按照1只怪物计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本额外奖励-目标达成关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本，怪物剩余数量为x，满足不同的目标达成关系，查看评分情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足目标达成情况为A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足目标达成情况为B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算评分时按照A情况计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算评分时按照B情况计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和zz确认是不是道具掉落通用逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本翻牌规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面显示4张翻面卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家通关副本，进入副本翻牌阶段，查看查看界面变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看卡牌情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1张免费卡牌，3张付费卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击免费卡牌，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费卡牌被翻开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看翻开卡牌显示内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为获得道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看获得道具情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看服务端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录获得道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包中获得道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认不论死活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本翻牌规则-未翻开卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻牌阶段玩家未翻开卡牌，10s后查看卡牌变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本翻牌规则-付费翻牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻牌阶段，玩家翻开付费卡牌，查看变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第一张付费卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第二张付费卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第三张付费卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌被翻开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看金钱消耗情况，设付费卡牌分别需要10，30，50金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只翻开第一张付费卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻开第一第二张付费卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻开全部付费卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金钱10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金钱40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金钱90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看服务端金钱变化情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除玩家消耗金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看道具获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费卡牌自动翻开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本翻牌规则-界面变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻牌阶段，玩家进行不同操作，查看界面变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示剩余未翻开卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家未翻开免费卡牌等待10s免费卡牌翻开，在等待5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家翻开免费卡牌后，不在继续翻牌，查看5s后界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示剩余卡牌后，等待3s查看触发情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算界面关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意卡牌翻开后，5s内玩家翻开付费卡牌后，在等待5s查看界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻牌阶段，所有卡牌被翻开后，查看界面变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本翻牌规则-全部卡牌翻开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为获得道具X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录获得道具X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包中获得道具X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看展示的未翻开卡牌中，道具获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未获得展示卡牌的道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包中未获得展示卡牌的道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看评分对副本额外奖励的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本翻牌时，查看卡牌道具情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻牌可获道具为1星评分对应的道具配置列表X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻牌可获道具为2星评分对应的道具配置列表Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻牌可获道具为3星评分对应的道具配置列表Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌道具在掉落列表X中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌道具在掉落列表Y中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌道具在掉落列表Z中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+  </si>
+  <si>
+    <t>更新内容</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>策划源文档</t>
+  </si>
+  <si>
+    <t>SVN版本</t>
+  </si>
+  <si>
+    <t>创建副本结算用例</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn://192.168.199.122/gd/副本系统/副本结算文档.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +1348,112 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3333FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -58,21 +1461,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_目录" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -348,13 +2053,2804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B21:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="21" spans="2:11" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="2:11" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="36">
+        <v>42125</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="F22" s="43">
+        <v>93</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="40"/>
+    </row>
+    <row r="23" spans="2:11" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="40"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J126"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="37" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="28.5" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="J13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="D31" s="6">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="B49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F50" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="B52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="J55" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12">
+        <v>2</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="59" spans="2:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="B59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F61" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D62" s="6">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="B64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D65" s="6">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F68" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F69" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D70" s="6">
+        <v>2</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D73" s="6">
+        <v>2</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F76" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D77" s="6">
+        <v>2</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B79" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F80" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F81" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F82" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B84" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F85" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F86" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D87" s="6">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D90" s="6">
+        <v>2</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D92" s="6">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F93" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D94" s="6">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B96" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F97" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F98" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F99" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B101" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F102" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F103" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D104" s="6">
+        <v>2</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" s="6">
+        <v>1</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F107" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F108" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F109" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B111" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F112" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B114" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114" s="6">
+        <v>1</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F115" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F116" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B118" s="18"/>
+      <c r="C118" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D118" s="18"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B119" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C121" s="8"/>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E126" s="7"/>
+      <c r="G126" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:C3 K2:IU3">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:G3">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J136"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="37" style="7" customWidth="1"/>
+    <col min="6" max="6" width="31.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="37.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="28.5" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="F5" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="F6" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="F7" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="F8" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
+        <v>2</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="F10" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="F11" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="F12" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="F13" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B14" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="F15" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="F16" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B18" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="F19" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="F20" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="J21" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="F22" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="F23" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="F24" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="F25" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B27" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="F28" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="F29" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="2:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B31" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23">
+        <v>2</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23">
+        <v>3</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="23">
+        <v>1</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="24"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23">
+        <v>2</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="24"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="F43" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="J43" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="F44" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23">
+        <v>3</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="F46" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="F47" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="2:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B49" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="23">
+        <v>1</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="F50" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="F51" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="2:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B53" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="23">
+        <v>1</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="F54" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="2:10" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B56" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="23">
+        <v>1</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="F57" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23">
+        <v>2</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="F59" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23">
+        <v>3</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="25"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D63" s="23">
+        <v>1</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="F64" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23">
+        <v>2</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="F66" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="23">
+        <v>1</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="F69" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="H69" s="23"/>
+    </row>
+    <row r="70" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="F70" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23">
+        <v>2</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23">
+        <v>3</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="F73" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="2:8" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23">
+        <v>4</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H74" s="23"/>
+    </row>
+    <row r="75" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="F75" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="F76" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23">
+        <v>5</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="2:8" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B79" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" s="23">
+        <v>1</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="2:8" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="F80" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" spans="2:8" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="F81" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23">
+        <v>2</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="H82" s="23"/>
+    </row>
+    <row r="83" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23">
+        <v>3</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="H83" s="23"/>
+    </row>
+    <row r="84" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="F84" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H84" s="23"/>
+    </row>
+    <row r="85" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="H85" s="23"/>
+    </row>
+    <row r="86" spans="2:8" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B86" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86" s="23">
+        <v>1</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="H86" s="23"/>
+    </row>
+    <row r="87" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="H87" s="23"/>
+    </row>
+    <row r="88" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="H88" s="23"/>
+    </row>
+    <row r="89" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="H89" s="23"/>
+    </row>
+    <row r="90" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="H90" s="23"/>
+    </row>
+    <row r="91" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="H91" s="23"/>
+    </row>
+    <row r="92" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="H92" s="23"/>
+    </row>
+    <row r="93" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="H93" s="23"/>
+    </row>
+    <row r="94" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="H94" s="23"/>
+    </row>
+    <row r="95" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="H95" s="23"/>
+    </row>
+    <row r="96" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="H96" s="23"/>
+    </row>
+    <row r="97" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="H97" s="23"/>
+    </row>
+    <row r="98" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="H98" s="23"/>
+    </row>
+    <row r="99" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="H99" s="23"/>
+    </row>
+    <row r="100" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="H100" s="23"/>
+    </row>
+    <row r="101" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="H101" s="23"/>
+    </row>
+    <row r="102" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="F102" s="3"/>
+      <c r="H102" s="23"/>
+    </row>
+    <row r="103" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="F103" s="3"/>
+      <c r="H103" s="23"/>
+    </row>
+    <row r="104" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="H104" s="23"/>
+    </row>
+    <row r="105" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="H105" s="23"/>
+    </row>
+    <row r="106" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="H106" s="23"/>
+    </row>
+    <row r="107" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="H107" s="23"/>
+    </row>
+    <row r="108" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="H108" s="23"/>
+    </row>
+    <row r="109" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="H109" s="23"/>
+    </row>
+    <row r="110" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="H110" s="23"/>
+    </row>
+    <row r="111" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="H111" s="23"/>
+    </row>
+    <row r="112" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="H112" s="23"/>
+    </row>
+    <row r="113" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="H113" s="23"/>
+    </row>
+    <row r="114" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="H114" s="23"/>
+    </row>
+    <row r="115" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="H115" s="23"/>
+    </row>
+    <row r="116" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="H116" s="23"/>
+    </row>
+    <row r="117" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="H117" s="23"/>
+    </row>
+    <row r="118" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="H118" s="23"/>
+    </row>
+    <row r="119" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="H119" s="23"/>
+    </row>
+    <row r="120" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="H120" s="23"/>
+    </row>
+    <row r="121" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="H121" s="23"/>
+    </row>
+    <row r="122" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="H122" s="23"/>
+    </row>
+    <row r="123" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="H123" s="23"/>
+    </row>
+    <row r="124" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="H124" s="23"/>
+    </row>
+    <row r="125" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="H125" s="23"/>
+    </row>
+    <row r="126" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="H126" s="23"/>
+    </row>
+    <row r="127" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="H127" s="23"/>
+    </row>
+    <row r="128" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="24"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="23"/>
+      <c r="H128" s="23"/>
+    </row>
+    <row r="129" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="H129" s="23"/>
+    </row>
+    <row r="130" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="H130" s="23"/>
+    </row>
+    <row r="131" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="H131" s="23"/>
+    </row>
+    <row r="132" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="H132" s="23"/>
+    </row>
+    <row r="133" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="H133" s="23"/>
+    </row>
+    <row r="134" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="H134" s="23"/>
+    </row>
+    <row r="135" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="H135" s="23"/>
+    </row>
+    <row r="136" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="H136" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:C3 K2:IU3">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:G3">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
@@ -19,7 +19,7 @@
     <sheet name="多语言" sheetId="7" r:id="rId5"/>
     <sheet name="sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="614">
   <si>
     <t>caseID</t>
   </si>
@@ -1175,14 +1175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前副本的下一副本可以进入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前副本的下一副本不可以进入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从左到右分别为，再次挑战，（下一关按钮隐藏），确定按钮，样式如图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1627,15 +1619,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>样式如图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“花费 钻石图标 *钻石数量 继续战斗么？”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2433,6 +2417,46 @@
   </si>
   <si>
     <t>Not enough Diamonds. Would you like to get more?</t>
+  </si>
+  <si>
+    <t>当前副本不为本章最后一个副本，且下一副本可以进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前副本为本章最后一个副本，且下一副本可以进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前副本不为本章最后一个副本，且下一副本不可以进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前副本为本章最后一个副本，且下一副本不可以进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据bug复查情况，修改用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否马上复活继续进行战斗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用带钻石窗口样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改复活界面样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3364,13 +3388,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2273190</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>180938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3402,13 +3426,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2358869</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>25369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3440,13 +3464,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>513500</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>180481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3516,13 +3540,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>93196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2158757</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>155536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3557,44 +3581,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>532593</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>183743</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11703050" y="6000750"/>
-          <a:ext cx="6457143" cy="3257143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
@@ -3614,7 +3600,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3623,6 +3609,44 @@
         <a:xfrm>
           <a:off x="11868150" y="9994900"/>
           <a:ext cx="3266667" cy="1828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>513211</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11329100" y="6102350"/>
+          <a:ext cx="5554411" cy="3526702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3999,7 +4023,7 @@
   <dimension ref="B21:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4055,10 +4079,10 @@
         <v>42276</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>56</v>
@@ -4077,29 +4101,49 @@
         <v>42293</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="41" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="41"/>
-    </row>
-    <row r="26" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="41"/>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="29" x14ac:dyDescent="0.25">
+      <c r="B25" s="25">
+        <v>42326</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="41">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.25">
+      <c r="B26" s="25">
+        <v>42332</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="41">
+        <v>5724</v>
+      </c>
     </row>
     <row r="27" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B27" s="25"/>
@@ -4189,7 +4233,7 @@
   <dimension ref="A1:W137"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
@@ -4278,7 +4322,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4289,7 +4333,7 @@
         <v>83</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4300,7 +4344,7 @@
         <v>84</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4314,7 +4358,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4331,7 +4375,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I8" s="5">
         <v>900</v>
@@ -4345,7 +4389,7 @@
         <v>89</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4356,7 +4400,7 @@
         <v>89</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4367,7 +4411,7 @@
         <v>89</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4391,7 +4435,7 @@
         <v>62</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J13" s="9"/>
     </row>
@@ -4407,7 +4451,7 @@
         <v>63</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4419,10 +4463,10 @@
         <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4436,7 +4480,7 @@
         <v>61</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4461,7 +4505,7 @@
         <v>113</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4472,7 +4516,7 @@
         <v>114</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4483,7 +4527,7 @@
         <v>115</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4497,7 +4541,7 @@
         <v>61</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4521,7 +4565,7 @@
         <v>117</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4532,7 +4576,7 @@
         <v>116</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4546,7 +4590,7 @@
         <v>61</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4572,7 +4616,7 @@
         <v>76</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4586,7 +4630,7 @@
         <v>75</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4600,7 +4644,7 @@
         <v>74</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4619,7 +4663,7 @@
         <v>92</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4633,7 +4677,7 @@
         <v>92</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4647,7 +4691,7 @@
         <v>92</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4661,7 +4705,7 @@
         <v>92</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -4688,7 +4732,7 @@
         <v>96</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -4700,7 +4744,7 @@
         <v>97</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -4712,7 +4756,7 @@
         <v>98</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -4726,7 +4770,7 @@
         <v>61</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -4749,7 +4793,7 @@
         <v>43</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -4760,7 +4804,7 @@
         <v>99</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -4771,7 +4815,7 @@
         <v>100</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -4782,7 +4826,7 @@
         <v>101</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -4799,7 +4843,7 @@
         <v>108</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -4811,7 +4855,7 @@
         <v>109</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -4822,7 +4866,7 @@
         <v>110</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -4848,7 +4892,7 @@
         <v>17</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -4859,7 +4903,7 @@
         <v>18</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -4870,7 +4914,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -4887,7 +4931,7 @@
         <v>21</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -4898,7 +4942,7 @@
         <v>22</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -4909,7 +4953,7 @@
         <v>23</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -4936,7 +4980,7 @@
         <v>33</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="W55" s="35"/>
     </row>
@@ -4948,7 +4992,7 @@
         <v>38</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -4959,7 +5003,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -4970,7 +5014,7 @@
         <v>42</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -4993,7 +5037,7 @@
         <v>33</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -5004,7 +5048,7 @@
         <v>32</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -5015,7 +5059,7 @@
         <v>34</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -5026,7 +5070,7 @@
         <v>35</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -5057,7 +5101,7 @@
         <v>47</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5071,7 +5115,7 @@
         <v>123</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5090,7 +5134,7 @@
         <v>140</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5148,7 @@
         <v>141</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5118,7 +5162,7 @@
         <v>142</v>
       </c>
       <c r="H70" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5132,7 +5176,7 @@
         <v>143</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5151,7 +5195,7 @@
         <v>127</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5165,7 +5209,7 @@
         <v>128</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5194,7 +5238,7 @@
         <v>136</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5208,7 +5252,7 @@
         <v>138</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5227,7 +5271,7 @@
         <v>140</v>
       </c>
       <c r="H77" s="43" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5241,7 +5285,7 @@
         <v>142</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5255,7 +5299,7 @@
         <v>143</v>
       </c>
       <c r="H79" s="43" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5274,7 +5318,7 @@
         <v>144</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5288,7 +5332,7 @@
         <v>128</v>
       </c>
       <c r="H81" s="43" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5322,7 +5366,7 @@
         <v>153</v>
       </c>
       <c r="H84" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5333,7 +5377,7 @@
         <v>152</v>
       </c>
       <c r="H85" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5344,7 +5388,7 @@
         <v>152</v>
       </c>
       <c r="H86" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5355,7 +5399,7 @@
         <v>152</v>
       </c>
       <c r="H87" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5369,7 +5413,7 @@
         <v>155</v>
       </c>
       <c r="H88" s="43" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5386,7 +5430,7 @@
         <v>157</v>
       </c>
       <c r="H89" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5397,7 +5441,7 @@
         <v>158</v>
       </c>
       <c r="H90" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5420,7 +5464,7 @@
         <v>161</v>
       </c>
       <c r="H92" s="43" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5434,7 +5478,7 @@
         <v>163</v>
       </c>
       <c r="H93" s="43" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="29" x14ac:dyDescent="0.25">
@@ -5451,7 +5495,7 @@
         <v>172</v>
       </c>
       <c r="H94" s="43" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I94" s="5">
         <v>903</v>
@@ -5465,7 +5509,7 @@
         <v>171</v>
       </c>
       <c r="H95" s="43" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5476,7 +5520,7 @@
         <v>170</v>
       </c>
       <c r="H96" s="43" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5487,7 +5531,7 @@
         <v>169</v>
       </c>
       <c r="H97" s="43" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5510,7 +5554,7 @@
         <v>179</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I99" s="5">
         <v>909</v>
@@ -5524,7 +5568,7 @@
         <v>180</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5535,7 +5579,7 @@
         <v>181</v>
       </c>
       <c r="H101" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5546,7 +5590,7 @@
         <v>182</v>
       </c>
       <c r="H102" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5566,10 +5610,10 @@
         <v>186</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H104" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -5580,10 +5624,10 @@
         <v>177</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H105" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.25">
@@ -5591,10 +5635,10 @@
         <v>178</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H106" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="29" x14ac:dyDescent="0.25">
@@ -5602,15 +5646,15 @@
         <v>176</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H107" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -5620,10 +5664,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5758,13 +5802,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -5847,24 +5891,24 @@
         <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>192</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="F5" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>191</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5888,7 +5932,7 @@
         <v>196</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5900,7 +5944,7 @@
         <v>198</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.25">
@@ -5909,10 +5953,10 @@
         <v>212</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5929,7 +5973,7 @@
         <v>201</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5941,7 +5985,7 @@
         <v>204</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -5953,19 +5997,19 @@
         <v>203</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I13" s="5">
         <v>902</v>
@@ -5985,7 +6029,7 @@
         <v>207</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -5998,7 +6042,7 @@
         <v>209</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -6011,7 +6055,7 @@
         <v>208</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
@@ -6024,7 +6068,7 @@
         <v>211</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6041,7 +6085,7 @@
         <v>216</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
@@ -6053,7 +6097,7 @@
         <v>217</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6064,10 +6108,10 @@
         <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I20" s="5">
         <v>907</v>
@@ -6078,10 +6122,10 @@
         <v>218</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
@@ -6090,10 +6134,10 @@
         <v>221</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
@@ -6101,10 +6145,10 @@
         <v>219</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I23" s="5">
         <v>927</v>
@@ -6115,10 +6159,10 @@
         <v>220</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
@@ -6132,7 +6176,7 @@
         <v>253</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6146,7 +6190,7 @@
         <v>228</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
@@ -6157,7 +6201,7 @@
         <v>225</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
@@ -6169,7 +6213,7 @@
         <v>226</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
@@ -6180,7 +6224,7 @@
         <v>227</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I29" s="5">
         <v>905</v>
@@ -6194,7 +6238,7 @@
         <v>226</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
@@ -6205,7 +6249,7 @@
         <v>235</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I31" s="5">
         <v>1027</v>
@@ -6222,7 +6266,7 @@
         <v>236</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
@@ -6233,7 +6277,7 @@
         <v>240</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
@@ -6244,7 +6288,7 @@
         <v>241</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
@@ -6256,7 +6300,7 @@
         <v>242</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I35" s="5">
         <v>905</v>
@@ -6276,7 +6320,7 @@
         <v>244</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
@@ -6287,7 +6331,7 @@
         <v>217</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
@@ -6298,7 +6342,7 @@
         <v>247</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
@@ -6312,7 +6356,7 @@
         <v>250</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I39" s="5">
         <v>908</v>
@@ -6323,10 +6367,10 @@
         <v>249</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
@@ -6337,7 +6381,7 @@
         <v>252</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
@@ -6351,7 +6395,7 @@
         <v>281</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6365,7 +6409,7 @@
         <v>256</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I43" s="5">
         <v>909</v>
@@ -6379,7 +6423,7 @@
         <v>257</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
@@ -6390,7 +6434,7 @@
         <v>258</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
@@ -6401,7 +6445,7 @@
         <v>259</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
@@ -6412,7 +6456,7 @@
         <v>260</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
@@ -6423,10 +6467,10 @@
         <v>261</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F49" s="5" t="s">
         <v>268</v>
       </c>
@@ -6434,10 +6478,10 @@
         <v>270</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F50" s="5" t="s">
         <v>269</v>
       </c>
@@ -6445,10 +6489,10 @@
         <v>271</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D51" s="6">
         <v>13</v>
       </c>
@@ -6459,24 +6503,24 @@
         <v>267</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F52" s="5" t="s">
         <v>273</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I52" s="5">
         <v>910</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F53" s="5" t="s">
         <v>274</v>
       </c>
@@ -6484,10 +6528,10 @@
         <v>272</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F54" s="5" t="s">
         <v>275</v>
       </c>
@@ -6495,10 +6539,10 @@
         <v>278</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F55" s="5" t="s">
         <v>276</v>
       </c>
@@ -6506,10 +6550,10 @@
         <v>279</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D56" s="6">
         <v>14</v>
       </c>
@@ -6521,491 +6565,481 @@
       </c>
       <c r="H56" s="43"/>
     </row>
-    <row r="57" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="D57" s="6">
         <v>15</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>292</v>
+      <c r="F57" s="7" t="s">
+        <v>604</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>285</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F58" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F58" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F59" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F60" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H60" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="I60" s="5">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D61" s="6">
+        <v>16</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F62" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H58" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="I58" s="5">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D59" s="6">
-        <v>16</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H59" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F60" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H60" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F61" s="5" t="s">
+      <c r="H62" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F63" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H61" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="43"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C63" s="6" t="s">
+      <c r="H63" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="43"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D63" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="G65" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F66" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F67" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H63" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F64" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H64" s="43" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F65" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D66" s="6">
-        <v>2</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>530</v>
-      </c>
-      <c r="I66" s="5">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F67" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="H67" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D68" s="6">
+        <v>2</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="I68" s="5">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F69" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H69" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="6">
         <v>3</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E70" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H70" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="I70" s="5">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H71" s="43" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="43"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="C73" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="H68" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="I68" s="5">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F69" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H69" s="43" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H70" s="43"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D71" s="6">
-        <v>1</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H71" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F72" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H72" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F73" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="G73" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F74" s="7" t="s">
         <v>331</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H74" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H75" s="43"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D76" s="6">
-        <v>1</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>342</v>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F75" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F76" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H77" s="43"/>
     </row>
-    <row r="78" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>538</v>
+        <v>341</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F79" s="46" t="s">
-        <v>539</v>
-      </c>
-      <c r="G79" s="46" t="s">
-        <v>305</v>
-      </c>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H79" s="43"/>
     </row>
     <row r="80" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="F80" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F81" s="46" t="s">
-        <v>304</v>
+        <v>535</v>
       </c>
       <c r="G81" s="46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H81" s="43"/>
     </row>
     <row r="82" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F82" s="7" t="s">
-        <v>303</v>
+        <v>537</v>
       </c>
       <c r="G82" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="H82" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F83" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="H83" s="43"/>
+    </row>
+    <row r="84" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F84" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H84" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D85" s="6">
+        <v>2</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H82" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D83" s="6">
-        <v>2</v>
-      </c>
-      <c r="E83" s="7" t="s">
+      <c r="G85" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H85" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="I85" s="5">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F86" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F83" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H83" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="I83" s="5">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F84" s="5" t="s">
+      <c r="G86" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H84" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H85" s="43"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="D86" s="6">
-        <v>1</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>468</v>
-      </c>
       <c r="H86" s="43" t="s">
-        <v>537</v>
-      </c>
-      <c r="I86" s="5">
-        <v>911</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H87" s="43"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="34" t="s">
-        <v>458</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="F88" s="33"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="43"/>
+      <c r="B88" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H88" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="I88" s="5">
+        <v>911</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="34"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="19"/>
       <c r="H89" s="43"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="34"/>
-      <c r="C90" s="40"/>
+      <c r="B90" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>465</v>
+      </c>
       <c r="D90" s="34"/>
-      <c r="E90" s="33"/>
+      <c r="E90" s="33" t="s">
+        <v>466</v>
+      </c>
       <c r="F90" s="33"/>
       <c r="G90" s="19"/>
       <c r="H90" s="43"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="8"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="19"/>
       <c r="H91" s="43"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="8"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="19"/>
       <c r="H92" s="43"/>
     </row>
-    <row r="93" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H93" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="I93" s="39">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H94" s="43" t="s">
-        <v>499</v>
-      </c>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="8"/>
+      <c r="H93" s="43"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="8"/>
+      <c r="H94" s="43"/>
     </row>
     <row r="95" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="5"/>
+      <c r="B95" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="F95" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="H95" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
+      </c>
+      <c r="I95" s="39">
+        <v>918</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -7015,118 +7049,116 @@
       <c r="D96" s="6"/>
       <c r="E96" s="5"/>
       <c r="F96" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H96" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="6">
-        <v>2</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="F97" s="7"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="7" t="s">
+        <v>449</v>
+      </c>
       <c r="G97" s="7" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="H97" s="43" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="6">
-        <v>3</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="F98" s="7"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="7" t="s">
+        <v>457</v>
+      </c>
       <c r="G98" s="7" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="H98" s="43" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="7" t="s">
-        <v>463</v>
-      </c>
+      <c r="D99" s="6">
+        <v>2</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F99" s="7"/>
       <c r="G99" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="38"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="7" t="s">
-        <v>456</v>
-      </c>
+      <c r="D100" s="6">
+        <v>3</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>536</v>
-      </c>
-      <c r="I100" s="39">
-        <v>922</v>
+        <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="6">
-        <v>4</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F101" s="7"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="7" t="s">
+        <v>459</v>
+      </c>
       <c r="G101" s="7" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="H101" s="43" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="5"/>
       <c r="F102" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>543</v>
+        <v>467</v>
       </c>
       <c r="H102" s="43" t="s">
-        <v>521</v>
+        <v>532</v>
+      </c>
+      <c r="I102" s="39">
+        <v>922</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -7134,227 +7166,261 @@
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>475</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="F103" s="7"/>
       <c r="G103" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H103" s="43" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="5"/>
       <c r="F104" s="7" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="H104" s="43" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="5"/>
+      <c r="D105" s="6">
+        <v>5</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="F105" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H105" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="6">
-        <v>6</v>
-      </c>
-      <c r="E106" s="5" t="s">
+      <c r="D106" s="6"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7" t="s">
-        <v>484</v>
-      </c>
       <c r="H106" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="38"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="6">
-        <v>7</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>485</v>
-      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="5"/>
       <c r="F107" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>478</v>
-      </c>
       <c r="H107" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="F108" s="7" t="s">
-        <v>476</v>
-      </c>
+      <c r="D108" s="6">
+        <v>6</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F108" s="7"/>
       <c r="G108" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H108" s="43" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="38"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6">
+        <v>7</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H109" s="43" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="38"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="F110" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H110" s="43" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D111" s="6">
+        <v>8</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H111" s="43" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F112" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="H108" s="43" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D109" s="6">
-        <v>8</v>
-      </c>
-      <c r="E109" s="5" t="s">
+      <c r="G112" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="H109" s="43" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F110" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="H110" s="43" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F111" s="7"/>
-      <c r="H111" s="43"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="6" t="s">
+      <c r="H112" s="43" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F113" s="7"/>
+      <c r="H113" s="43"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D114" s="6">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H114" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="I114" s="5">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F115" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H115" s="43" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F116" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="D112" s="6">
-        <v>1</v>
-      </c>
-      <c r="E112" s="5" t="s">
+      <c r="G116" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F112" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H112" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="I112" s="5">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F113" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H113" s="43" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F114" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H114" s="43" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F116" s="39"/>
-    </row>
-    <row r="117" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F117" s="39"/>
-    </row>
-    <row r="118" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H116" s="43" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F118" s="39"/>
     </row>
-    <row r="119" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F119" s="39"/>
     </row>
-    <row r="120" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F120" s="39"/>
     </row>
-    <row r="121" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F121" s="39"/>
     </row>
-    <row r="122" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F122" s="39"/>
     </row>
-    <row r="123" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F123" s="39"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F124" s="7"/>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F125" s="7"/>
-    </row>
-    <row r="126" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F126" s="39"/>
-    </row>
-    <row r="127" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F127" s="39"/>
-    </row>
-    <row r="128" spans="6:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F124" s="39"/>
+    </row>
+    <row r="125" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F125" s="39"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F126" s="7"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F127" s="7"/>
+    </row>
+    <row r="128" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F128" s="39"/>
+    </row>
+    <row r="129" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F129" s="39"/>
+    </row>
+    <row r="130" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F130" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7377,7 +7443,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81:H111 H4:H77">
+  <conditionalFormatting sqref="H83:H113 H4:H79">
     <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -7388,7 +7454,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+  <conditionalFormatting sqref="H81">
     <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -7399,7 +7465,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H80">
     <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -7410,7 +7476,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -7421,7 +7487,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112:H114">
+  <conditionalFormatting sqref="H114:H116">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -7442,10 +7508,10 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -7517,22 +7583,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -7540,37 +7606,37 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -7578,16 +7644,16 @@
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I8" s="5">
         <v>930</v>
@@ -7595,25 +7661,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -7621,27 +7687,27 @@
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7649,13 +7715,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7663,27 +7729,27 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7691,42 +7757,42 @@
         <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="H16" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="H17" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
@@ -7734,60 +7800,60 @@
         <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="H19" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.25">
@@ -7795,16 +7861,16 @@
         <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I24" s="5">
         <v>933</v>
@@ -7812,24 +7878,24 @@
     </row>
     <row r="25" spans="4:10" ht="29" x14ac:dyDescent="0.25">
       <c r="F25" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="H26" s="43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I26" s="5">
         <v>931</v>
@@ -7837,35 +7903,35 @@
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="H27" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
@@ -7873,27 +7939,27 @@
         <v>10</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="H30" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="H31" s="43" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.25">
@@ -7901,13 +7967,13 @@
         <v>11</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -7915,22 +7981,22 @@
     </row>
     <row r="34" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -7938,27 +8004,27 @@
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>448</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F36" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -7966,22 +8032,22 @@
     </row>
     <row r="38" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -7990,38 +8056,38 @@
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>405</v>
+        <v>611</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>407</v>
+        <v>610</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F41" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -8029,38 +8095,38 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>412</v>
-      </c>
       <c r="H42" s="43" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F43" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F44" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -8068,27 +8134,27 @@
         <v>4</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F46" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -8096,22 +8162,22 @@
     </row>
     <row r="48" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I48" s="5">
         <v>932</v>
@@ -8125,25 +8191,25 @@
         <v>286</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E50" s="7"/>
       <c r="F50" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
@@ -8151,28 +8217,28 @@
         <v>3</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="H51" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E52" s="7"/>
       <c r="F52" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="4:8" ht="29" x14ac:dyDescent="0.25">
@@ -8180,28 +8246,28 @@
         <v>4</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E54" s="7"/>
       <c r="F54" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="55" spans="4:8" ht="29" x14ac:dyDescent="0.25">
@@ -8209,28 +8275,28 @@
         <v>5</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E56" s="7"/>
       <c r="F56" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.25">
@@ -8310,59 +8376,59 @@
   <sheetData>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A3" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A4" s="48" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A5" s="52" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E5" s="48"/>
     </row>
@@ -8382,44 +8448,44 @@
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A8" s="47" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A9" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A10" s="52" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E10" s="48"/>
     </row>
@@ -8428,16 +8494,16 @@
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A12" s="48" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -8446,16 +8512,16 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="53" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
@@ -8598,32 +8664,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" t="s">
         <v>296</v>
-      </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>

--- a/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="656">
   <si>
     <t>caseID</t>
   </si>
@@ -689,10 +689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从6个性格中随机roll一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物等级为1级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,10 +816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出现背景闪光的动态效果+victory旁边翅膀展开的动态效果（翅膀展开，伴随掉羽毛特效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从屏幕中间上升到图中位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1072,10 +1064,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宠物已满级，获得了100经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示副本获得的怪物与道具icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1120,22 +1108,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货币不会显示在副本奖励区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验不会显示在副本奖励区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看副本奖励显示规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详见“经验条增长规则”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详见”副本掉落物品显示规则“</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1147,10 +1123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从左到右分别为，再次挑战，下一关，确定按钮，样式如图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击相关按钮，查看触发情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1279,10 +1251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填充过程中，玩家升级，查看触发情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看经验条样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1319,10 +1287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符合“经验条比例显示规则”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家当前经验为100，升下一级经验1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2129,10 +2093,6 @@
   <si>
     <t>P</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>符合通用icon规则，支持tips(此处的tips不显示道具的获得途径)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
@@ -2401,14 +2361,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>花费      *999 继续战斗么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spend 999     to continue battle?</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_zuanshinoenough</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2456,6 +2408,220 @@
   </si>
   <si>
     <t>wangl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否马上复活继续进行战斗？</t>
+  </si>
+  <si>
+    <t>Revive now and continue battle?</t>
+  </si>
+  <si>
+    <t>与unitData表的disposition字段性格一致</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现背景闪光的动态效果+victory旁边翅膀展开的动态效果（翅膀展开，伴随掉羽毛特效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本评星规则</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本后，查看副本星级获得情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家没有宠物死亡-玩家携带5只怪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家没有宠物死亡-玩家携带3只怪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家没有宠物死亡-玩家携带1只怪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家死亡1只宠物-玩家携带5只怪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家死亡1只宠物-玩家携带3只怪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家死亡2只宠物-玩家携带5只怪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家死亡2只怪物-玩家携带3只怪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定为3星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定为3星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定为2星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定为2星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定为1星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定为1星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家副本中进行过复活-玩家复活后没有宠物死亡通关</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家副本中进行过复活-玩家复活后有宠物死亡通关</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家副本中进行过复活-玩家复活多次后通关</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定为1星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定为1星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会获得星星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会获得星星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家副本未通关-复活过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家副本未通关-没有复活过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家通关时获得星星后，查看结算界面星星显示情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家获得3颗星星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家获得2颗星星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家获得1颗星星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有3颗星星砸到对应位置</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有2颗星星砸到对应位置</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有1颗星星砸到对应位置</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家失败结算时，查看星星显示情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会显示星星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物已满级，获得了100经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充过程中，玩家升级，查看触发情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验不会显示在副本奖励区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合“经验条比例显示规则”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左到右分别为，再次挑战，（下一关按钮隐藏），确定按钮，样式如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左到右分别为，再次挑战，下一关，确定按钮，样式如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币不会显示在副本奖励区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合通用icon规则，支持tips(此处的tips不显示道具的获得途径)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“经验条增长规则-宠物”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验条增长规则-宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充过程中，宠物升级，查看触发情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充过程中，宠物等级达到版本最高等级，查看触发情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充过程中，宠物等级由于玩家限制不可升级，查看触发情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验条长满后变空，并且不再增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加副本评星用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2604,7 +2770,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2638,6 +2804,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2687,7 +2859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2839,6 +3011,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3464,13 +3651,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>513500</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>180481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3574,6 +3761,143 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="876190" cy="295238"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="15957550"/>
+          <a:ext cx="876190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1247619" cy="247619"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="16402050"/>
+          <a:ext cx="1247619" cy="247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>112246</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1523757" cy="246490"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8318500" y="18571696"/>
+          <a:ext cx="1523757" cy="246490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1700420</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>269106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8642350" y="20447000"/>
+          <a:ext cx="538370" cy="123056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3651,105 +3975,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>478790</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7753350" y="8099425"/>
-          <a:ext cx="193040" cy="174625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>878840</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4933950" y="2032000"/>
-          <a:ext cx="193040" cy="174625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4023,7 +4248,7 @@
   <dimension ref="B21:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4079,10 +4304,10 @@
         <v>42276</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>56</v>
@@ -4101,14 +4326,14 @@
         <v>42293</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="41" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="29" x14ac:dyDescent="0.25">
@@ -4116,10 +4341,10 @@
         <v>42326</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>56</v>
@@ -4133,10 +4358,10 @@
         <v>42332</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>56</v>
@@ -4145,12 +4370,22 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="41"/>
+    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.25">
+      <c r="B27" s="25">
+        <v>42347</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="41">
+        <v>6401</v>
+      </c>
     </row>
     <row r="28" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B28" s="25"/>
@@ -4233,10 +4468,10 @@
   <dimension ref="A1:W137"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
+      <selection pane="bottomRight" activeCell="F96" sqref="F96:G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -4322,7 +4557,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4333,7 +4568,7 @@
         <v>83</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4344,7 +4579,7 @@
         <v>84</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4358,7 +4593,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4375,7 +4610,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="I8" s="5">
         <v>900</v>
@@ -4389,7 +4624,7 @@
         <v>89</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4400,7 +4635,7 @@
         <v>89</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4411,7 +4646,7 @@
         <v>89</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4435,7 +4670,7 @@
         <v>62</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="J13" s="9"/>
     </row>
@@ -4451,7 +4686,7 @@
         <v>63</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4463,10 +4698,10 @@
         <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4480,7 +4715,7 @@
         <v>61</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4505,7 +4740,7 @@
         <v>113</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4516,7 +4751,7 @@
         <v>114</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4527,7 +4762,7 @@
         <v>115</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4541,7 +4776,7 @@
         <v>61</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4565,7 +4800,7 @@
         <v>117</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4576,7 +4811,7 @@
         <v>116</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4590,7 +4825,7 @@
         <v>61</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4616,7 +4851,7 @@
         <v>76</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4630,7 +4865,7 @@
         <v>75</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4644,7 +4879,7 @@
         <v>74</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4663,7 +4898,7 @@
         <v>92</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4677,7 +4912,7 @@
         <v>92</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4691,7 +4926,7 @@
         <v>92</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4705,7 +4940,7 @@
         <v>92</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -4732,7 +4967,7 @@
         <v>96</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -4744,7 +4979,7 @@
         <v>97</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -4756,7 +4991,7 @@
         <v>98</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -4770,7 +5005,7 @@
         <v>61</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -4793,7 +5028,7 @@
         <v>43</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -4804,7 +5039,7 @@
         <v>99</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -4815,7 +5050,7 @@
         <v>100</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -4826,7 +5061,7 @@
         <v>101</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -4843,7 +5078,7 @@
         <v>108</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -4855,7 +5090,7 @@
         <v>109</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -4866,7 +5101,7 @@
         <v>110</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -4892,7 +5127,7 @@
         <v>17</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -4903,7 +5138,7 @@
         <v>18</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -4914,7 +5149,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -4931,7 +5166,7 @@
         <v>21</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -4942,7 +5177,7 @@
         <v>22</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -4953,7 +5188,7 @@
         <v>23</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -4980,7 +5215,7 @@
         <v>33</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="W55" s="35"/>
     </row>
@@ -4992,7 +5227,7 @@
         <v>38</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -5003,7 +5238,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -5014,7 +5249,7 @@
         <v>42</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -5037,7 +5272,7 @@
         <v>33</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -5048,7 +5283,7 @@
         <v>32</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -5059,7 +5294,7 @@
         <v>34</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -5070,7 +5305,7 @@
         <v>35</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -5101,7 +5336,7 @@
         <v>47</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5115,7 +5350,7 @@
         <v>123</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5134,7 +5369,7 @@
         <v>140</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5148,7 +5383,7 @@
         <v>141</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5162,7 +5397,7 @@
         <v>142</v>
       </c>
       <c r="H70" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5176,7 +5411,7 @@
         <v>143</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5195,7 +5430,7 @@
         <v>127</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5209,7 +5444,7 @@
         <v>128</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5238,7 +5473,7 @@
         <v>136</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5252,7 +5487,7 @@
         <v>138</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5271,7 +5506,7 @@
         <v>140</v>
       </c>
       <c r="H77" s="43" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5285,7 +5520,7 @@
         <v>142</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5299,7 +5534,7 @@
         <v>143</v>
       </c>
       <c r="H79" s="43" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5318,7 +5553,7 @@
         <v>144</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5332,7 +5567,7 @@
         <v>128</v>
       </c>
       <c r="H81" s="43" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5366,7 +5601,7 @@
         <v>153</v>
       </c>
       <c r="H84" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5377,7 +5612,7 @@
         <v>152</v>
       </c>
       <c r="H85" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5388,7 +5623,7 @@
         <v>152</v>
       </c>
       <c r="H86" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5399,7 +5634,7 @@
         <v>152</v>
       </c>
       <c r="H87" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5413,7 +5648,7 @@
         <v>155</v>
       </c>
       <c r="H88" s="43" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5430,7 +5665,7 @@
         <v>157</v>
       </c>
       <c r="H89" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5441,7 +5676,7 @@
         <v>158</v>
       </c>
       <c r="H90" s="43" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5449,7 +5684,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>159</v>
@@ -5464,7 +5699,7 @@
         <v>161</v>
       </c>
       <c r="H92" s="43" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5478,7 +5713,7 @@
         <v>163</v>
       </c>
       <c r="H93" s="43" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="29" x14ac:dyDescent="0.25">
@@ -5492,10 +5727,10 @@
         <v>165</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H94" s="43" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="I94" s="5">
         <v>903</v>
@@ -5506,21 +5741,21 @@
         <v>166</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H95" s="43" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>170</v>
+      <c r="G96" s="58" t="s">
+        <v>604</v>
       </c>
       <c r="H96" s="43" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5531,7 +5766,7 @@
         <v>169</v>
       </c>
       <c r="H97" s="43" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5542,19 +5777,19 @@
         <v>68</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D99" s="6">
         <v>1</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I99" s="5">
         <v>909</v>
@@ -5562,35 +5797,35 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F100" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F101" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H101" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F102" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H102" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5598,63 +5833,63 @@
     </row>
     <row r="104" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="D104" s="6">
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H104" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C105" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H105" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F106" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H106" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F107" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H107" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -5664,10 +5899,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5802,13 +6037,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomRight" activeCell="A90" sqref="A90:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -5869,7 +6104,7 @@
     </row>
     <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -5879,36 +6114,36 @@
     </row>
     <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="F5" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5917,46 +6152,46 @@
     </row>
     <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="H7" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="H8" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5964,111 +6199,111 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>203</v>
+      <c r="F12" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>605</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="5" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="I13" s="5">
         <v>902</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="34">
+      <c r="D14" s="59">
         <v>3</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.25">
+      <c r="D15" s="59"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="59"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.25">
-      <c r="D15" s="34"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="H16" s="43" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="59"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="H15" s="43" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="34"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="34"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>211</v>
-      </c>
       <c r="H17" s="43" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6076,28 +6311,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H18" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6105,13 +6340,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I20" s="5">
         <v>907</v>
@@ -6119,36 +6354,36 @@
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="F22" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="I23" s="5">
         <v>927</v>
@@ -6156,13 +6391,13 @@
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
@@ -6170,13 +6405,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6184,47 +6419,47 @@
         <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="I29" s="5">
         <v>905</v>
@@ -6232,24 +6467,24 @@
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="I31" s="5">
         <v>1027</v>
@@ -6260,47 +6495,47 @@
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F33" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F34" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="I35" s="5">
         <v>905</v>
@@ -6311,38 +6546,38 @@
         <v>9</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F37" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F38" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
@@ -6350,13 +6585,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="H39" s="43" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="I39" s="5">
         <v>908</v>
@@ -6364,24 +6599,24 @@
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F41" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
@@ -6389,13 +6624,13 @@
         <v>11</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>281</v>
+        <v>648</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6403,13 +6638,13 @@
         <v>12</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="I43" s="5">
         <v>909</v>
@@ -6417,79 +6652,79 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F44" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F45" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F46" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F47" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F48" s="5" t="s">
-        <v>266</v>
+        <v>640</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F49" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F50" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.25">
@@ -6497,24 +6732,24 @@
         <v>13</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F52" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>531</v>
+        <v>647</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="I52" s="5">
         <v>910</v>
@@ -6522,35 +6757,35 @@
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F53" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F54" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>278</v>
+        <v>646</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F55" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>279</v>
+        <v>642</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.25">
@@ -6558,10 +6793,10 @@
         <v>14</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H56" s="43"/>
     </row>
@@ -6570,49 +6805,49 @@
         <v>15</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>285</v>
+        <v>645</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F58" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>292</v>
+        <v>644</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F59" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F60" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="I60" s="5">
         <v>928</v>
@@ -6623,38 +6858,38 @@
         <v>16</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F62" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F63" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.25">
@@ -6664,47 +6899,47 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D65" s="6">
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H65" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F66" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>328</v>
+        <v>643</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F67" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -6712,16 +6947,16 @@
         <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>318</v>
+        <v>641</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="I68" s="5">
         <v>913</v>
@@ -6729,13 +6964,13 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F69" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -6743,16 +6978,16 @@
         <v>3</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H70" s="45" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="I70" s="5">
         <v>927</v>
@@ -6760,13 +6995,13 @@
     </row>
     <row r="71" spans="2:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -6774,653 +7009,1025 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F74" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H74" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F75" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F76" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F77" s="7"/>
       <c r="H77" s="43"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H79" s="43"/>
     </row>
-    <row r="80" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D80" s="6">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="59" t="s">
+        <v>649</v>
+      </c>
+      <c r="C80" s="59" t="s">
+        <v>650</v>
+      </c>
+      <c r="D80" s="59">
         <v>1</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F80" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="G80" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="H80" s="43"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="G81" s="58" t="s">
+        <v>643</v>
+      </c>
+      <c r="H81" s="43"/>
+    </row>
+    <row r="82" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="G82" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="H82" s="43"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59">
+        <v>2</v>
+      </c>
+      <c r="E83" s="57" t="s">
+        <v>651</v>
+      </c>
+      <c r="F83" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="G83" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="H83" s="43"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="G84" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="H84" s="43"/>
+    </row>
+    <row r="85" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59">
+        <v>3</v>
+      </c>
+      <c r="E85" s="58" t="s">
+        <v>652</v>
+      </c>
+      <c r="F85" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="G85" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="H85" s="43"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="G86" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="H86" s="43"/>
+    </row>
+    <row r="87" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59">
+        <v>4</v>
+      </c>
+      <c r="E87" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="F87" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="G87" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="H87" s="43"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="G88" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="H88" s="43"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="43"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="C90" s="59" t="s">
+        <v>607</v>
+      </c>
+      <c r="D90" s="59">
+        <v>1</v>
+      </c>
+      <c r="E90" s="57" t="s">
+        <v>608</v>
+      </c>
+      <c r="F90" s="57" t="s">
+        <v>609</v>
+      </c>
+      <c r="G90" s="58" t="s">
+        <v>616</v>
+      </c>
+      <c r="H90" s="61"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57" t="s">
+        <v>610</v>
+      </c>
+      <c r="G91" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="H91" s="61"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57" t="s">
+        <v>611</v>
+      </c>
+      <c r="G92" s="58" t="s">
+        <v>616</v>
+      </c>
+      <c r="H92" s="61"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57" t="s">
+        <v>612</v>
+      </c>
+      <c r="G93" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="H93" s="61"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="G94" s="58" t="s">
+        <v>619</v>
+      </c>
+      <c r="H94" s="61"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="G95" s="58" t="s">
+        <v>621</v>
+      </c>
+      <c r="H95" s="61"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="G96" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="H96" s="61"/>
+    </row>
+    <row r="97" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="G97" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="H97" s="61"/>
+    </row>
+    <row r="98" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="G98" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="H98" s="61"/>
+    </row>
+    <row r="99" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="G99" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="H99" s="61"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="58" t="s">
+        <v>630</v>
+      </c>
+      <c r="G100" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="H100" s="61"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="58" t="s">
+        <v>629</v>
+      </c>
+      <c r="G101" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="H101" s="61"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59">
+        <v>2</v>
+      </c>
+      <c r="E102" s="57" t="s">
+        <v>631</v>
+      </c>
+      <c r="F102" s="58" t="s">
+        <v>632</v>
+      </c>
+      <c r="G102" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="H102" s="61"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="G103" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="H103" s="61"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="58" t="s">
+        <v>634</v>
+      </c>
+      <c r="G104" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="H104" s="61"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="59"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59">
+        <v>3</v>
+      </c>
+      <c r="E105" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="F105" s="58"/>
+      <c r="G105" s="58" t="s">
+        <v>639</v>
+      </c>
+      <c r="H105" s="61"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H106" s="43"/>
+    </row>
+    <row r="107" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D107" s="6">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H107" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F108" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="G108" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="H108" s="43"/>
+    </row>
+    <row r="109" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F109" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H109" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F110" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G110" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="H110" s="43"/>
+    </row>
+    <row r="111" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F111" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H111" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D112" s="6">
+        <v>2</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F112" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="H80" s="43" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F81" s="46" t="s">
-        <v>535</v>
-      </c>
-      <c r="G81" s="46" t="s">
+      <c r="G112" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H112" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="I112" s="5">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F113" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H81" s="43"/>
-    </row>
-    <row r="82" spans="1:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F82" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="H82" s="43" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F83" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="G83" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="H83" s="43"/>
-    </row>
-    <row r="84" spans="1:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F84" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H84" s="43" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D85" s="6">
+      <c r="H113" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H114" s="43"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H115" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="I115" s="5">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H116" s="43"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="D117" s="34"/>
+      <c r="E117" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="F117" s="33"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="43"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="34"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="43"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="34"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="43"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C120" s="8"/>
+      <c r="H120" s="43"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C121" s="8"/>
+      <c r="H121" s="43"/>
+    </row>
+    <row r="122" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="38"/>
+      <c r="B122" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H122" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="I122" s="39">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="38"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H123" s="43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="38"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H124" s="43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="38"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H125" s="43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="38"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6">
         <v>2</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H85" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="I85" s="5">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F86" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H86" s="43" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H87" s="43"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="E126" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H126" s="43" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="38"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6">
+        <v>3</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H127" s="43" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="38"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H128" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="38"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H129" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="I129" s="39">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="38"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6">
+        <v>4</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H130" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="A131" s="38"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="H131" s="43" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="38"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6">
+        <v>5</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="D88" s="6">
+      <c r="G132" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H132" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="38"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H133" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="38"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H134" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="38"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6">
+        <v>6</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H135" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="38"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6">
+        <v>7</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H136" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="38"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="F137" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H137" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D138" s="6">
+        <v>8</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="H138" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F139" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H139" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F140" s="7"/>
+      <c r="H140" s="43"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D141" s="6">
         <v>1</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H88" s="43" t="s">
-        <v>533</v>
-      </c>
-      <c r="I88" s="5">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H89" s="43"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="34" t="s">
-        <v>454</v>
-      </c>
-      <c r="C90" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="43"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="34"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="43"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="34"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="43"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="8"/>
-      <c r="H93" s="43"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="8"/>
-      <c r="H94" s="43"/>
-    </row>
-    <row r="95" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="B95" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H95" s="43" t="s">
-        <v>495</v>
-      </c>
-      <c r="I95" s="39">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="H96" s="43" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="H97" s="43" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H98" s="43" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6">
-        <v>2</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H99" s="43" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6">
-        <v>3</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H100" s="43" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="H101" s="43" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="H102" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="I102" s="39">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6">
-        <v>4</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H103" s="43" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="A104" s="38"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="H104" s="43" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6">
-        <v>5</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="H105" s="43" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="H106" s="43" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="H107" s="43" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="38"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6">
-        <v>6</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="H108" s="43" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="38"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6">
-        <v>7</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="H109" s="43" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="F110" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H110" s="43" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D111" s="6">
-        <v>8</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="H111" s="43" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F112" s="7" t="s">
+      <c r="E141" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H141" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="H112" s="43" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F113" s="7"/>
-      <c r="H113" s="43"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D114" s="6">
-        <v>1</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="H114" s="43" t="s">
-        <v>495</v>
-      </c>
-      <c r="I114" s="5">
+      <c r="I141" s="5">
         <v>926</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F115" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="H115" s="43" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F116" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="H116" s="43" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F117" s="7"/>
-    </row>
-    <row r="118" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F118" s="39"/>
-    </row>
-    <row r="119" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F119" s="39"/>
-    </row>
-    <row r="120" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F120" s="39"/>
-    </row>
-    <row r="121" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F121" s="39"/>
-    </row>
-    <row r="122" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F122" s="39"/>
-    </row>
-    <row r="123" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F123" s="39"/>
-    </row>
-    <row r="124" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F124" s="39"/>
-    </row>
-    <row r="125" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F125" s="39"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F126" s="7"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F127" s="7"/>
-    </row>
-    <row r="128" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F128" s="39"/>
-    </row>
-    <row r="129" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F129" s="39"/>
-    </row>
-    <row r="130" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F130" s="39"/>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F142" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H142" s="43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F143" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H143" s="43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F144" s="7"/>
+    </row>
+    <row r="145" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F145" s="39"/>
+    </row>
+    <row r="146" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F146" s="39"/>
+    </row>
+    <row r="147" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F147" s="39"/>
+    </row>
+    <row r="148" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F148" s="39"/>
+    </row>
+    <row r="149" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F149" s="39"/>
+    </row>
+    <row r="150" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F150" s="39"/>
+    </row>
+    <row r="151" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F151" s="39"/>
+    </row>
+    <row r="152" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F152" s="39"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="7"/>
+    </row>
+    <row r="155" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F155" s="39"/>
+    </row>
+    <row r="156" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F156" s="39"/>
+    </row>
+    <row r="157" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F157" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7443,7 +8050,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83:H113 H4:H79">
+  <conditionalFormatting sqref="H110:H140 H4:H106">
     <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -7454,7 +8061,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H108">
     <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -7465,7 +8072,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H107">
     <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -7476,7 +8083,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="H109">
     <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -7487,7 +8094,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114:H116">
+  <conditionalFormatting sqref="H141:H143">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -7508,10 +8115,10 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -7583,22 +8190,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -7606,37 +8213,37 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -7644,16 +8251,16 @@
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="I8" s="5">
         <v>930</v>
@@ -7661,25 +8268,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -7687,27 +8294,27 @@
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7715,13 +8322,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7729,27 +8336,27 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7757,42 +8364,42 @@
         <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
@@ -7800,60 +8407,60 @@
         <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.25">
@@ -7861,16 +8468,16 @@
         <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I24" s="5">
         <v>933</v>
@@ -7878,24 +8485,24 @@
     </row>
     <row r="25" spans="4:10" ht="29" x14ac:dyDescent="0.25">
       <c r="F25" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="I26" s="5">
         <v>931</v>
@@ -7903,35 +8510,35 @@
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
@@ -7939,27 +8546,27 @@
         <v>10</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.25">
@@ -7967,13 +8574,13 @@
         <v>11</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -7981,22 +8588,22 @@
     </row>
     <row r="34" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -8004,27 +8611,27 @@
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F36" s="5" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -8032,22 +8639,22 @@
     </row>
     <row r="38" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -8056,38 +8663,38 @@
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F41" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -8095,38 +8702,38 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F43" s="5" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F44" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -8134,27 +8741,27 @@
         <v>4</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F46" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -8162,22 +8769,22 @@
     </row>
     <row r="48" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="I48" s="5">
         <v>932</v>
@@ -8188,28 +8795,28 @@
         <v>2</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E50" s="7"/>
       <c r="F50" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
@@ -8217,28 +8824,28 @@
         <v>3</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E52" s="7"/>
       <c r="F52" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="4:8" ht="29" x14ac:dyDescent="0.25">
@@ -8246,28 +8853,28 @@
         <v>4</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E54" s="7"/>
       <c r="F54" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" spans="4:8" ht="29" x14ac:dyDescent="0.25">
@@ -8275,28 +8882,28 @@
         <v>5</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E56" s="7"/>
       <c r="F56" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.25">
@@ -8363,8 +8970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8376,59 +8983,59 @@
   <sheetData>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A3" s="48" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A4" s="48" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A5" s="52" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E5" s="48"/>
     </row>
@@ -8448,44 +9055,44 @@
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A8" s="47" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A9" s="48" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A10" s="52" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E10" s="48"/>
     </row>
@@ -8494,16 +9101,16 @@
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A12" s="48" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -8512,16 +9119,16 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="53" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
@@ -8648,7 +9255,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8664,32 +9270,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>

--- a/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="678">
   <si>
     <t>caseID</t>
   </si>
@@ -1824,10 +1824,6 @@
   </si>
   <si>
     <t>副本结算出现后，点击屏幕，查看触发情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过结算动画，直接显示界面最终效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2557,10 +2553,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>不会显示星星</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物已满级，获得了100经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2622,6 +2614,102 @@
   </si>
   <si>
     <t>添加副本评星用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本评星规则-再次通关</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家通关副本后，在再次进行副本，查看副本结算时星级获得情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3星通关</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2星通关</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1星通关</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通关</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算为3星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算为1星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算为2星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示3个空星星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高星级为3星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高星级为1星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高星级为2星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次通关副本，查看副本入口星级记录情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看数据库记录情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录星级为3星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录星级为2星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录星级为1星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过结算动画，直接显示界面最终效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看victory动画</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看星级动画</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看获得奖励动画</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过动画，直接显示界面最终效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3007,12 +3095,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3026,6 +3108,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3651,13 +3739,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>513500</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>180481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4247,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B21:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -4304,10 +4392,10 @@
         <v>42276</v>
       </c>
       <c r="C23" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>483</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>484</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>56</v>
@@ -4326,14 +4414,14 @@
         <v>42293</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="29" x14ac:dyDescent="0.25">
@@ -4341,10 +4429,10 @@
         <v>42326</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>596</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>597</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>56</v>
@@ -4358,10 +4446,10 @@
         <v>42332</v>
       </c>
       <c r="C26" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>600</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>601</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>56</v>
@@ -4375,7 +4463,7 @@
         <v>42347</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>55</v>
@@ -4468,7 +4556,7 @@
   <dimension ref="A1:W137"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F96" sqref="F96:G96"/>
@@ -4494,9 +4582,9 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4557,7 +4645,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4568,7 +4656,7 @@
         <v>83</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4579,7 +4667,7 @@
         <v>84</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4593,7 +4681,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4610,7 +4698,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I8" s="5">
         <v>900</v>
@@ -4624,7 +4712,7 @@
         <v>89</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4635,7 +4723,7 @@
         <v>89</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4646,7 +4734,7 @@
         <v>89</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4670,7 +4758,7 @@
         <v>62</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J13" s="9"/>
     </row>
@@ -4686,7 +4774,7 @@
         <v>63</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4698,10 +4786,10 @@
         <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4715,7 +4803,7 @@
         <v>61</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4740,7 +4828,7 @@
         <v>113</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4751,7 +4839,7 @@
         <v>114</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4762,7 +4850,7 @@
         <v>115</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4776,7 +4864,7 @@
         <v>61</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4800,7 +4888,7 @@
         <v>117</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4811,7 +4899,7 @@
         <v>116</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4825,7 +4913,7 @@
         <v>61</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4851,7 +4939,7 @@
         <v>76</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4865,7 +4953,7 @@
         <v>75</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4879,7 +4967,7 @@
         <v>74</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4898,7 +4986,7 @@
         <v>92</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4912,7 +5000,7 @@
         <v>92</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4926,7 +5014,7 @@
         <v>92</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4940,7 +5028,7 @@
         <v>92</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -4967,7 +5055,7 @@
         <v>96</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -4979,7 +5067,7 @@
         <v>97</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -4991,7 +5079,7 @@
         <v>98</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -5005,7 +5093,7 @@
         <v>61</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -5028,7 +5116,7 @@
         <v>43</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -5039,7 +5127,7 @@
         <v>99</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -5050,7 +5138,7 @@
         <v>100</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -5061,7 +5149,7 @@
         <v>101</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -5078,7 +5166,7 @@
         <v>108</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -5090,7 +5178,7 @@
         <v>109</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -5101,7 +5189,7 @@
         <v>110</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -5127,7 +5215,7 @@
         <v>17</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -5138,7 +5226,7 @@
         <v>18</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -5149,7 +5237,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -5166,7 +5254,7 @@
         <v>21</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -5177,7 +5265,7 @@
         <v>22</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -5188,7 +5276,7 @@
         <v>23</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -5215,7 +5303,7 @@
         <v>33</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W55" s="35"/>
     </row>
@@ -5227,7 +5315,7 @@
         <v>38</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -5238,7 +5326,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -5249,7 +5337,7 @@
         <v>42</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -5272,7 +5360,7 @@
         <v>33</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -5283,7 +5371,7 @@
         <v>32</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -5294,7 +5382,7 @@
         <v>34</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -5305,7 +5393,7 @@
         <v>35</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -5336,7 +5424,7 @@
         <v>47</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5350,7 +5438,7 @@
         <v>123</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5369,7 +5457,7 @@
         <v>140</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5383,7 +5471,7 @@
         <v>141</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5397,7 +5485,7 @@
         <v>142</v>
       </c>
       <c r="H70" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5411,7 +5499,7 @@
         <v>143</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5430,7 +5518,7 @@
         <v>127</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5444,7 +5532,7 @@
         <v>128</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5473,7 +5561,7 @@
         <v>136</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5487,7 +5575,7 @@
         <v>138</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5506,7 +5594,7 @@
         <v>140</v>
       </c>
       <c r="H77" s="43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5520,7 +5608,7 @@
         <v>142</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5534,7 +5622,7 @@
         <v>143</v>
       </c>
       <c r="H79" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5553,7 +5641,7 @@
         <v>144</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5567,7 +5655,7 @@
         <v>128</v>
       </c>
       <c r="H81" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5601,7 +5689,7 @@
         <v>153</v>
       </c>
       <c r="H84" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5612,7 +5700,7 @@
         <v>152</v>
       </c>
       <c r="H85" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5623,7 +5711,7 @@
         <v>152</v>
       </c>
       <c r="H86" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5634,7 +5722,7 @@
         <v>152</v>
       </c>
       <c r="H87" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5648,7 +5736,7 @@
         <v>155</v>
       </c>
       <c r="H88" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5665,7 +5753,7 @@
         <v>157</v>
       </c>
       <c r="H89" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5676,7 +5764,7 @@
         <v>158</v>
       </c>
       <c r="H90" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5699,7 +5787,7 @@
         <v>161</v>
       </c>
       <c r="H92" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5713,7 +5801,7 @@
         <v>163</v>
       </c>
       <c r="H93" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="29" x14ac:dyDescent="0.25">
@@ -5730,7 +5818,7 @@
         <v>171</v>
       </c>
       <c r="H94" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I94" s="5">
         <v>903</v>
@@ -5744,18 +5832,18 @@
         <v>170</v>
       </c>
       <c r="H95" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F96" s="57" t="s">
+      <c r="F96" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="G96" s="58" t="s">
-        <v>604</v>
+      <c r="G96" s="56" t="s">
+        <v>603</v>
       </c>
       <c r="H96" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5766,7 +5854,7 @@
         <v>169</v>
       </c>
       <c r="H97" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5789,7 +5877,7 @@
         <v>178</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I99" s="5">
         <v>909</v>
@@ -5803,7 +5891,7 @@
         <v>179</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5814,7 +5902,7 @@
         <v>180</v>
       </c>
       <c r="H101" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5825,7 +5913,7 @@
         <v>181</v>
       </c>
       <c r="H102" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5845,10 +5933,10 @@
         <v>185</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H104" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -5859,10 +5947,10 @@
         <v>176</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H105" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.25">
@@ -5870,10 +5958,10 @@
         <v>177</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H106" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="29" x14ac:dyDescent="0.25">
@@ -5881,15 +5969,15 @@
         <v>175</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H107" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -5899,10 +5987,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -6037,13 +6125,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D109" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A90" sqref="A90:XFD98"/>
+      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -6066,9 +6154,9 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6132,7 +6220,7 @@
         <v>191</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -6143,7 +6231,7 @@
         <v>190</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -6167,7 +6255,7 @@
         <v>195</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -6179,7 +6267,7 @@
         <v>197</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.25">
@@ -6188,10 +6276,10 @@
         <v>210</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="H9" s="43" t="s">
         <v>506</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6208,7 +6296,7 @@
         <v>200</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6220,90 +6308,90 @@
         <v>202</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="58" t="s">
         <v>201</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="H13" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I13" s="5">
         <v>902</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="59">
+      <c r="D14" s="57">
         <v>3</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="56" t="s">
         <v>205</v>
       </c>
       <c r="H14" s="43" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.25">
+      <c r="D15" s="57"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="43" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.25">
-      <c r="D15" s="59"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>510</v>
-      </c>
-    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="59"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="56" t="s">
         <v>206</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="59"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="56" t="s">
         <v>209</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6320,7 +6408,7 @@
         <v>214</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
@@ -6332,7 +6420,7 @@
         <v>215</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6343,10 +6431,10 @@
         <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I20" s="5">
         <v>907</v>
@@ -6357,10 +6445,10 @@
         <v>216</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
@@ -6369,10 +6457,10 @@
         <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
@@ -6380,10 +6468,10 @@
         <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I23" s="5">
         <v>927</v>
@@ -6394,10 +6482,10 @@
         <v>218</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
@@ -6411,7 +6499,7 @@
         <v>251</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6425,7 +6513,7 @@
         <v>226</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
@@ -6436,7 +6524,7 @@
         <v>223</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
@@ -6448,7 +6536,7 @@
         <v>224</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
@@ -6459,7 +6547,7 @@
         <v>225</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I29" s="5">
         <v>905</v>
@@ -6473,7 +6561,7 @@
         <v>224</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
@@ -6484,7 +6572,7 @@
         <v>233</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I31" s="5">
         <v>1027</v>
@@ -6501,7 +6589,7 @@
         <v>234</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
@@ -6512,7 +6600,7 @@
         <v>238</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
@@ -6523,7 +6611,7 @@
         <v>239</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
@@ -6535,7 +6623,7 @@
         <v>240</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I35" s="5">
         <v>905</v>
@@ -6555,7 +6643,7 @@
         <v>242</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
@@ -6566,7 +6654,7 @@
         <v>215</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
@@ -6577,7 +6665,7 @@
         <v>245</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
@@ -6591,7 +6679,7 @@
         <v>248</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I39" s="5">
         <v>908</v>
@@ -6602,10 +6690,10 @@
         <v>247</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H40" s="43" t="s">
         <v>520</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
@@ -6616,7 +6704,7 @@
         <v>250</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
@@ -6627,10 +6715,10 @@
         <v>252</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6644,7 +6732,7 @@
         <v>254</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I43" s="5">
         <v>909</v>
@@ -6658,7 +6746,7 @@
         <v>255</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
@@ -6669,7 +6757,7 @@
         <v>256</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
@@ -6680,7 +6768,7 @@
         <v>257</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
@@ -6691,18 +6779,18 @@
         <v>258</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F48" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>259</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.25">
@@ -6713,7 +6801,7 @@
         <v>267</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.25">
@@ -6724,7 +6812,7 @@
         <v>268</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.25">
@@ -6738,7 +6826,7 @@
         <v>264</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6746,10 +6834,10 @@
         <v>270</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I52" s="5">
         <v>910</v>
@@ -6763,7 +6851,7 @@
         <v>269</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.25">
@@ -6771,10 +6859,10 @@
         <v>272</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.25">
@@ -6782,10 +6870,10 @@
         <v>273</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.25">
@@ -6808,46 +6896,46 @@
         <v>278</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F58" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F59" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>285</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F60" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>285</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I60" s="5">
         <v>928</v>
@@ -6867,7 +6955,7 @@
         <v>283</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.25">
@@ -6878,7 +6966,7 @@
         <v>286</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.25">
@@ -6889,7 +6977,7 @@
         <v>284</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.25">
@@ -6917,7 +7005,7 @@
         <v>308</v>
       </c>
       <c r="H65" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -6925,10 +7013,10 @@
         <v>309</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -6939,7 +7027,7 @@
         <v>310</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -6947,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>311</v>
@@ -6956,7 +7044,7 @@
         <v>313</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I68" s="5">
         <v>913</v>
@@ -6970,7 +7058,7 @@
         <v>314</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -6987,7 +7075,7 @@
         <v>316</v>
       </c>
       <c r="H70" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I70" s="5">
         <v>927</v>
@@ -7001,7 +7089,7 @@
         <v>326</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -7024,7 +7112,7 @@
         <v>330</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -7035,7 +7123,7 @@
         <v>323</v>
       </c>
       <c r="H74" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -7046,7 +7134,7 @@
         <v>325</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -7057,7 +7145,7 @@
         <v>324</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -7081,953 +7169,1151 @@
         <v>332</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H79" s="43"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="57" t="s">
+        <v>647</v>
+      </c>
+      <c r="C80" s="57" t="s">
+        <v>648</v>
+      </c>
+      <c r="D80" s="57">
+        <v>1</v>
+      </c>
+      <c r="E80" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="F80" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="G80" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="H80" s="43"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="G81" s="56" t="s">
+        <v>641</v>
+      </c>
+      <c r="H81" s="43"/>
+    </row>
+    <row r="82" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="G82" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="H82" s="43"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57">
+        <v>2</v>
+      </c>
+      <c r="E83" s="55" t="s">
         <v>649</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="F83" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="G83" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="H83" s="43"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="G84" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="H84" s="43"/>
+    </row>
+    <row r="85" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57">
+        <v>3</v>
+      </c>
+      <c r="E85" s="56" t="s">
         <v>650</v>
       </c>
-      <c r="D80" s="59">
+      <c r="F85" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="G85" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="H85" s="43"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="G86" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="H86" s="43"/>
+    </row>
+    <row r="87" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57">
+        <v>4</v>
+      </c>
+      <c r="E87" s="56" t="s">
+        <v>651</v>
+      </c>
+      <c r="F87" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="G87" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="H87" s="43"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="G88" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="H88" s="43"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="43"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="57" t="s">
+        <v>605</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>606</v>
+      </c>
+      <c r="D90" s="57">
         <v>1</v>
       </c>
-      <c r="E80" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="F80" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="G80" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="H80" s="43"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="G81" s="58" t="s">
-        <v>643</v>
-      </c>
-      <c r="H81" s="43"/>
-    </row>
-    <row r="82" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="G82" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="H82" s="43"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59">
+      <c r="E90" s="55" t="s">
+        <v>607</v>
+      </c>
+      <c r="F90" s="55" t="s">
+        <v>608</v>
+      </c>
+      <c r="G90" s="56" t="s">
+        <v>615</v>
+      </c>
+      <c r="H90" s="59"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55" t="s">
+        <v>609</v>
+      </c>
+      <c r="G91" s="56" t="s">
+        <v>616</v>
+      </c>
+      <c r="H91" s="59"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="G92" s="56" t="s">
+        <v>615</v>
+      </c>
+      <c r="H92" s="59"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="G93" s="56" t="s">
+        <v>617</v>
+      </c>
+      <c r="H93" s="59"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="G94" s="56" t="s">
+        <v>618</v>
+      </c>
+      <c r="H94" s="59"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="56" t="s">
+        <v>613</v>
+      </c>
+      <c r="G95" s="56" t="s">
+        <v>620</v>
+      </c>
+      <c r="H95" s="59"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="G96" s="56" t="s">
+        <v>619</v>
+      </c>
+      <c r="H96" s="59"/>
+    </row>
+    <row r="97" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B97" s="57"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="G97" s="56" t="s">
+        <v>619</v>
+      </c>
+      <c r="H97" s="59"/>
+    </row>
+    <row r="98" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="56" t="s">
+        <v>622</v>
+      </c>
+      <c r="G98" s="56" t="s">
+        <v>624</v>
+      </c>
+      <c r="H98" s="59"/>
+    </row>
+    <row r="99" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="G99" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="H99" s="59"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="56" t="s">
+        <v>629</v>
+      </c>
+      <c r="G100" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="H100" s="59"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="56" t="s">
+        <v>628</v>
+      </c>
+      <c r="G101" s="56" t="s">
+        <v>627</v>
+      </c>
+      <c r="H101" s="59"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57">
         <v>2</v>
       </c>
-      <c r="E83" s="57" t="s">
-        <v>651</v>
-      </c>
-      <c r="F83" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="G83" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="H83" s="43"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="G84" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="H84" s="43"/>
-    </row>
-    <row r="85" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59">
+      <c r="E102" s="55" t="s">
+        <v>630</v>
+      </c>
+      <c r="F102" s="56" t="s">
+        <v>631</v>
+      </c>
+      <c r="G102" s="56" t="s">
+        <v>634</v>
+      </c>
+      <c r="H102" s="59"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="56" t="s">
+        <v>632</v>
+      </c>
+      <c r="G103" s="56" t="s">
+        <v>635</v>
+      </c>
+      <c r="H103" s="59"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="57"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="56" t="s">
+        <v>633</v>
+      </c>
+      <c r="G104" s="56" t="s">
+        <v>636</v>
+      </c>
+      <c r="H104" s="59"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57">
         <v>3</v>
       </c>
-      <c r="E85" s="58" t="s">
-        <v>652</v>
-      </c>
-      <c r="F85" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="G85" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="H85" s="43"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="G86" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="H86" s="43"/>
-    </row>
-    <row r="87" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B87" s="59"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59">
-        <v>4</v>
-      </c>
-      <c r="E87" s="58" t="s">
-        <v>653</v>
-      </c>
-      <c r="F87" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="G87" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="H87" s="43"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="G88" s="58" t="s">
+      <c r="E105" s="55" t="s">
+        <v>637</v>
+      </c>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56" t="s">
+        <v>664</v>
+      </c>
+      <c r="H105" s="59"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="43"/>
+    </row>
+    <row r="107" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B107" s="57" t="s">
         <v>654</v>
       </c>
-      <c r="H88" s="43"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="43"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="59" t="s">
-        <v>606</v>
-      </c>
-      <c r="C90" s="59" t="s">
-        <v>607</v>
-      </c>
-      <c r="D90" s="59">
+      <c r="C107" s="57" t="s">
+        <v>655</v>
+      </c>
+      <c r="D107" s="57">
         <v>1</v>
       </c>
-      <c r="E90" s="57" t="s">
-        <v>608</v>
-      </c>
-      <c r="F90" s="57" t="s">
-        <v>609</v>
-      </c>
-      <c r="G90" s="58" t="s">
-        <v>616</v>
-      </c>
-      <c r="H90" s="61"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="59"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57" t="s">
-        <v>610</v>
-      </c>
-      <c r="G91" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="H91" s="61"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="59"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57" t="s">
-        <v>611</v>
-      </c>
-      <c r="G92" s="58" t="s">
-        <v>616</v>
-      </c>
-      <c r="H92" s="61"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="59"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57" t="s">
-        <v>612</v>
-      </c>
-      <c r="G93" s="58" t="s">
-        <v>618</v>
-      </c>
-      <c r="H93" s="61"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="G94" s="58" t="s">
-        <v>619</v>
-      </c>
-      <c r="H94" s="61"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="58" t="s">
-        <v>614</v>
-      </c>
-      <c r="G95" s="58" t="s">
-        <v>621</v>
-      </c>
-      <c r="H95" s="61"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="59"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="58" t="s">
-        <v>615</v>
-      </c>
-      <c r="G96" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="H96" s="61"/>
-    </row>
-    <row r="97" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="58" t="s">
-        <v>622</v>
-      </c>
-      <c r="G97" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="H97" s="61"/>
-    </row>
-    <row r="98" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B98" s="59"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="58" t="s">
-        <v>623</v>
-      </c>
-      <c r="G98" s="58" t="s">
-        <v>625</v>
-      </c>
-      <c r="H98" s="61"/>
-    </row>
-    <row r="99" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="58" t="s">
-        <v>624</v>
-      </c>
-      <c r="G99" s="58" t="s">
-        <v>626</v>
-      </c>
-      <c r="H99" s="61"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="59"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="58" t="s">
-        <v>630</v>
-      </c>
-      <c r="G100" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="H100" s="61"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="59"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="58" t="s">
-        <v>629</v>
-      </c>
-      <c r="G101" s="58" t="s">
-        <v>628</v>
-      </c>
-      <c r="H101" s="61"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="59"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59">
+      <c r="E107" s="56" t="s">
+        <v>656</v>
+      </c>
+      <c r="F107" s="55" t="s">
+        <v>657</v>
+      </c>
+      <c r="G107" s="56" t="s">
+        <v>661</v>
+      </c>
+      <c r="H107" s="43"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55" t="s">
+        <v>658</v>
+      </c>
+      <c r="G108" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="H108" s="43"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="G109" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="H109" s="43"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55" t="s">
+        <v>660</v>
+      </c>
+      <c r="G110" s="56" t="s">
+        <v>664</v>
+      </c>
+      <c r="H110" s="43"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="57">
         <v>2</v>
       </c>
-      <c r="E102" s="57" t="s">
-        <v>631</v>
-      </c>
-      <c r="F102" s="58" t="s">
-        <v>632</v>
-      </c>
-      <c r="G102" s="58" t="s">
-        <v>635</v>
-      </c>
-      <c r="H102" s="61"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="59"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="58" t="s">
-        <v>633</v>
-      </c>
-      <c r="G103" s="58" t="s">
-        <v>636</v>
-      </c>
-      <c r="H103" s="61"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="59"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="58" t="s">
-        <v>634</v>
-      </c>
-      <c r="G104" s="58" t="s">
-        <v>637</v>
-      </c>
-      <c r="H104" s="61"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="59"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="59">
+      <c r="E111" s="55" t="s">
+        <v>668</v>
+      </c>
+      <c r="F111" s="55" t="s">
+        <v>665</v>
+      </c>
+      <c r="G111" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="H111" s="43"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="57"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="G112" s="56" t="s">
+        <v>671</v>
+      </c>
+      <c r="H112" s="43"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="55" t="s">
+        <v>666</v>
+      </c>
+      <c r="G113" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="H113" s="43"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="57"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="57">
         <v>3</v>
       </c>
-      <c r="E105" s="57" t="s">
-        <v>638</v>
-      </c>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58" t="s">
-        <v>639</v>
-      </c>
-      <c r="H105" s="61"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H106" s="43"/>
-    </row>
-    <row r="107" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B107" s="6" t="s">
+      <c r="E114" s="55" t="s">
+        <v>669</v>
+      </c>
+      <c r="F114" s="55" t="s">
+        <v>665</v>
+      </c>
+      <c r="G114" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="H114" s="43"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="57"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="57"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="G115" s="56" t="s">
+        <v>671</v>
+      </c>
+      <c r="H115" s="43"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="57"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="57"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="55" t="s">
+        <v>666</v>
+      </c>
+      <c r="G116" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="H116" s="43"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="57"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="57"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="56"/>
+      <c r="H117" s="43"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H118" s="43"/>
+    </row>
+    <row r="119" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C119" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D119" s="6">
         <v>1</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F119" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H119" s="43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F120" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="G120" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="H120" s="43"/>
+    </row>
+    <row r="121" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F121" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="H107" s="43" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F108" s="46" t="s">
-        <v>525</v>
-      </c>
-      <c r="G108" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="H108" s="43"/>
-    </row>
-    <row r="109" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F109" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="G109" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="H109" s="43" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F110" s="46" t="s">
+      <c r="H121" s="43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F122" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="G110" s="46" t="s">
+      <c r="G122" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="H110" s="43"/>
-    </row>
-    <row r="111" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F111" s="7" t="s">
+      <c r="H122" s="43"/>
+    </row>
+    <row r="123" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F123" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G123" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H111" s="43" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D112" s="6">
+      <c r="H123" s="43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D124" s="6">
         <v>2</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E124" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F124" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H112" s="45" t="s">
-        <v>517</v>
-      </c>
-      <c r="I112" s="5">
+      <c r="H124" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="I124" s="5">
         <v>919</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F113" s="5" t="s">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F125" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H113" s="43" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H114" s="43"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
+      <c r="H125" s="43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H126" s="43"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C127" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D127" s="57">
         <v>1</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E127" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="F127" s="55"/>
+      <c r="G127" s="56" t="s">
+        <v>673</v>
+      </c>
+      <c r="H127" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="I127" s="5">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="57"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55" t="s">
+        <v>674</v>
+      </c>
+      <c r="G128" s="56" t="s">
+        <v>677</v>
+      </c>
+      <c r="H128" s="43"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="57"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="55"/>
+      <c r="F129" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="G129" s="56" t="s">
+        <v>677</v>
+      </c>
+      <c r="H129" s="43"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="57"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="G130" s="56" t="s">
+        <v>677</v>
+      </c>
+      <c r="H130" s="43"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H131" s="43"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="C132" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="H115" s="43" t="s">
-        <v>523</v>
-      </c>
-      <c r="I115" s="5">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H116" s="43"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="C117" s="40" t="s">
+      <c r="D132" s="34"/>
+      <c r="E132" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="D117" s="34"/>
-      <c r="E117" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="F117" s="33"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="43"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="34"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="43"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="34"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="43"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C120" s="8"/>
-      <c r="H120" s="43"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C121" s="8"/>
-      <c r="H121" s="43"/>
-    </row>
-    <row r="122" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="38"/>
-      <c r="B122" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D122" s="6">
-        <v>1</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H122" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="I122" s="39">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="38"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H123" s="43" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="38"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H124" s="43" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="38"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="H125" s="43" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="38"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6">
-        <v>2</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="H126" s="43" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6">
-        <v>3</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H127" s="43" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="38"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H128" s="43" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="38"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H129" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="I129" s="39">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="38"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6">
-        <v>4</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H130" s="43" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="A131" s="38"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="H131" s="43" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="38"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6">
-        <v>5</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H132" s="43" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="H133" s="43" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="38"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="H134" s="43" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="38"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6">
-        <v>6</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="H135" s="43" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6">
-        <v>7</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H136" s="43" t="s">
-        <v>530</v>
-      </c>
+      <c r="F132" s="33"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="43"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="34"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="43"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="34"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="43"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C135" s="8"/>
+      <c r="H135" s="43"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C136" s="8"/>
+      <c r="H136" s="43"/>
     </row>
     <row r="137" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="38"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
+      <c r="B137" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="F137" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H137" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="I137" s="39">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="38"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H138" s="43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="38"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H139" s="43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="38"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H140" s="43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="38"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6">
+        <v>2</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H141" s="43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="38"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6">
+        <v>3</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H142" s="43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="38"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H143" s="43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="38"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H144" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="I144" s="39">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="38"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6">
+        <v>4</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H145" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="A146" s="38"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H146" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="38"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6">
+        <v>5</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H147" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="38"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H148" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="38"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G137" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H137" s="43" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D138" s="6">
+      <c r="G149" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H149" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="38"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6">
+        <v>6</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H150" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="38"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6">
+        <v>7</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H151" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="38"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="F152" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H152" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D153" s="6">
         <v>8</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E153" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F153" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="G153" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="H153" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F154" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="G154" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="H138" s="43" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F139" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H139" s="43" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F140" s="7"/>
-      <c r="H140" s="43"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="6" t="s">
+      <c r="H154" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F155" s="7"/>
+      <c r="H155" s="43"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D156" s="6">
+        <v>1</v>
+      </c>
+      <c r="E156" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="D141" s="6">
-        <v>1</v>
-      </c>
-      <c r="E141" s="5" t="s">
+      <c r="F156" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="G156" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H156" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="I156" s="5">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F157" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="G141" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="H141" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="I141" s="5">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F142" s="7" t="s">
+      <c r="G157" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H157" s="43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F158" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="H142" s="43" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F143" s="7" t="s">
+      <c r="G158" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="G143" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="H143" s="43" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F144" s="7"/>
-    </row>
-    <row r="145" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F145" s="39"/>
-    </row>
-    <row r="146" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F146" s="39"/>
-    </row>
-    <row r="147" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F147" s="39"/>
-    </row>
-    <row r="148" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F148" s="39"/>
-    </row>
-    <row r="149" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F149" s="39"/>
-    </row>
-    <row r="150" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F150" s="39"/>
-    </row>
-    <row r="151" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F151" s="39"/>
-    </row>
-    <row r="152" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F152" s="39"/>
-    </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F153" s="7"/>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F154" s="7"/>
-    </row>
-    <row r="155" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F155" s="39"/>
-    </row>
-    <row r="156" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F156" s="39"/>
-    </row>
-    <row r="157" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F157" s="39"/>
+      <c r="H158" s="43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F159" s="7"/>
+    </row>
+    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F160" s="39"/>
+    </row>
+    <row r="161" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F161" s="39"/>
+    </row>
+    <row r="162" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F162" s="39"/>
+    </row>
+    <row r="163" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F163" s="39"/>
+    </row>
+    <row r="164" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F164" s="39"/>
+    </row>
+    <row r="165" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F165" s="39"/>
+    </row>
+    <row r="166" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F166" s="39"/>
+    </row>
+    <row r="167" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F167" s="39"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="7"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="7"/>
+    </row>
+    <row r="170" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F170" s="39"/>
+    </row>
+    <row r="171" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F171" s="39"/>
+    </row>
+    <row r="172" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F172" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8050,7 +8336,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110:H140 H4:H106">
+  <conditionalFormatting sqref="H122:H155 H4:H118">
     <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -8061,7 +8347,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
+  <conditionalFormatting sqref="H120">
     <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -8072,7 +8358,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
+  <conditionalFormatting sqref="H119">
     <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -8083,7 +8369,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
+  <conditionalFormatting sqref="H121">
     <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -8094,7 +8380,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H141:H143">
+  <conditionalFormatting sqref="H156:H158">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -8141,9 +8427,9 @@
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8202,10 +8488,10 @@
         <v>335</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -8219,7 +8505,7 @@
         <v>337</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8231,7 +8517,7 @@
         <v>347</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8243,7 +8529,7 @@
         <v>348</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -8260,7 +8546,7 @@
         <v>342</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I8" s="5">
         <v>930</v>
@@ -8274,7 +8560,7 @@
         <v>343</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -8286,7 +8572,7 @@
         <v>344</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8297,24 +8583,24 @@
         <v>349</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>350</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>546</v>
-      </c>
       <c r="H12" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -8328,7 +8614,7 @@
         <v>352</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -8339,24 +8625,24 @@
         <v>354</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>355</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="43" t="s">
         <v>569</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8373,7 +8659,7 @@
         <v>359</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
@@ -8384,7 +8670,7 @@
         <v>360</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
@@ -8396,10 +8682,10 @@
         <v>362</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
@@ -8416,7 +8702,7 @@
         <v>365</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
@@ -8427,7 +8713,7 @@
         <v>367</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
@@ -8438,7 +8724,7 @@
         <v>424</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
@@ -8449,7 +8735,7 @@
         <v>366</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
@@ -8460,7 +8746,7 @@
         <v>380</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.25">
@@ -8477,7 +8763,7 @@
         <v>373</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I24" s="5">
         <v>933</v>
@@ -8491,7 +8777,7 @@
         <v>425</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.25">
@@ -8502,7 +8788,7 @@
         <v>376</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I26" s="5">
         <v>931</v>
@@ -8516,7 +8802,7 @@
         <v>377</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.25">
@@ -8527,7 +8813,7 @@
         <v>381</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
@@ -8538,7 +8824,7 @@
         <v>382</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
@@ -8555,7 +8841,7 @@
         <v>386</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
@@ -8566,7 +8852,7 @@
         <v>387</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.25">
@@ -8580,7 +8866,7 @@
         <v>426</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -8603,7 +8889,7 @@
         <v>430</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -8620,7 +8906,7 @@
         <v>433</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -8631,7 +8917,7 @@
         <v>434</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -8654,7 +8940,7 @@
         <v>391</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -8669,10 +8955,10 @@
         <v>393</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -8680,10 +8966,10 @@
         <v>394</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -8694,7 +8980,7 @@
         <v>421</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -8711,7 +8997,7 @@
         <v>399</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -8722,7 +9008,7 @@
         <v>400</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -8733,7 +9019,7 @@
         <v>401</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -8750,7 +9036,7 @@
         <v>405</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -8761,7 +9047,7 @@
         <v>406</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -8784,7 +9070,7 @@
         <v>410</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I48" s="5">
         <v>932</v>
@@ -8804,7 +9090,7 @@
         <v>411</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
@@ -8816,7 +9102,7 @@
         <v>412</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
@@ -8833,7 +9119,7 @@
         <v>417</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
@@ -8845,7 +9131,7 @@
         <v>416</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="4:8" ht="29" x14ac:dyDescent="0.25">
@@ -8862,7 +9148,7 @@
         <v>405</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
@@ -8874,7 +9160,7 @@
         <v>406</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="4:8" ht="29" x14ac:dyDescent="0.25">
@@ -8891,7 +9177,7 @@
         <v>405</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
@@ -8903,7 +9189,7 @@
         <v>410</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.25">
@@ -8983,59 +9269,59 @@
   <sheetData>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>573</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="C2" s="51" t="s">
         <v>574</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>575</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A3" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>576</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="C3" s="50" t="s">
         <v>577</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>578</v>
-      </c>
       <c r="D3" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A4" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>579</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>580</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>581</v>
-      </c>
       <c r="D4" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A5" s="52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B5" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>583</v>
-      </c>
       <c r="D5" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E5" s="48"/>
     </row>
@@ -9055,44 +9341,44 @@
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A8" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>584</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>574</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>585</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A9" s="48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B9" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>587</v>
-      </c>
       <c r="D9" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A10" s="52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B10" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>583</v>
-      </c>
       <c r="D10" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E10" s="48"/>
     </row>
@@ -9101,16 +9387,16 @@
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A12" s="48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B12" s="48" t="s">
+        <v>601</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>602</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>603</v>
-      </c>
       <c r="D12" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -9119,16 +9405,16 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="53" t="s">
+        <v>588</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>589</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="C13" s="54" t="s">
         <v>590</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>591</v>
-      </c>
       <c r="D13" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>

--- a/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="743">
   <si>
     <t>caseID</t>
   </si>
@@ -764,10 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家进行副本，查看结算时触发情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>触发副本失败结算界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -832,10 +828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星星砸到屏幕上时伴随闪闪星星特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>victory上升到图中位置时，星星立刻开始砸：星星从左至右一颗一颗砸到对应位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1823,18 +1815,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本结算出现后，点击屏幕，查看触发情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副本失败结算界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对局ui隐藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2036,10 +2020,6 @@
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2417,10 +2397,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>出现背景闪光的动态效果+victory旁边翅膀展开的动态效果（翅膀展开，伴随掉羽毛特效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分支</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2711,13 +2687,286 @@
   <si>
     <t>跳过动画，直接显示界面最终效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星砸到屏幕上时伴随闪闪星星特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现背景闪光的动态效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发副本失败结算界面，查看界面显示情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面包括副本结果，失败指引列表，功能按钮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看界面位置</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏显示</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看界面元素出现规则</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为defeat，样式如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先出现副本结果，随后出现失败指引列表，最后出现功能按钮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看失败指引列表出现情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看出现方式</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体三项一起从屏幕右侧进入</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示内容</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示再次挑战，确定按钮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“失败指引列表显示规则“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败指引列表显示规则</t>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本胜利结算出现后，点击屏幕，查看触发情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本失败结算出现后，点击屏幕，查看触发情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过结算动画，直接显示界面最终效果</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看defeat动画</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示规则</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据对局情况，显示3项内容</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中未打到boss局</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中已打到boss局，未鉴定任何弱点</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中已打到boss局，鉴定出过弱点</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发副本失败结算，查看失败指引列表显示规则</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>从type不等于0的其他项中抽取三项</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一项为type等于0的项，后两项为其他项中抽取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看失败项抽取情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>从玩家等级达到可使用等级的指引中随机抽取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家达到失败项abc的开启等级，不满足失败项def的开启等级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>从项abc中随机抽取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家达到失败项abcd的开启等级，不满足失败项ef的开启等级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>从项abcd中随机抽取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括标题，图示，提示信息，跳转按钮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指引列表标题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取loseGuide.csv表对应项的name字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应项为A</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应项为B</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取项A的name字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取项B的name字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指引列表图示</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取loseGuide.csv表对应项的picture字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取项A的picture字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取项B的picture字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指引列表提示信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取loseGuide.csv表对应项的tips字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取项A的tips字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取项B的tips字段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指引列表跳转按钮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>type= 1</t>
+  </si>
+  <si>
+    <t>type= 2</t>
+  </si>
+  <si>
+    <t>type= 3</t>
+  </si>
+  <si>
+    <t>type= 4</t>
+  </si>
+  <si>
+    <t>type= 5</t>
+  </si>
+  <si>
+    <t>type= 6</t>
+  </si>
+  <si>
+    <t>type= 7</t>
+  </si>
+  <si>
+    <t>type= 8</t>
+  </si>
+  <si>
+    <t>存在跳转按钮</t>
+  </si>
+  <si>
+    <t>不存在跳转按钮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击指引列表的跳转按钮，查看触发情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式位置如图</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到抽蛋主界面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到玩家拥有宠物列表界面</t>
+  </si>
+  <si>
+    <t>查看怪物展示情况</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>与抽蛋界面展示效果一致</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2857,19 +3106,20 @@
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2947,7 +3197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2981,22 +3231,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3005,14 +3255,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3021,13 +3268,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3042,12 +3289,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3064,26 +3305,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3095,26 +3330,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3739,13 +4004,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>513500</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>180481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3783,7 +4048,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>189271</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>151798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3978,6 +4243,44 @@
         <a:xfrm>
           <a:off x="8642350" y="20447000"/>
           <a:ext cx="538370" cy="123056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21693</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>66345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10877550" y="34486850"/>
+          <a:ext cx="4257143" cy="2638095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4347,203 +4650,203 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="2:11" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="22" t="s">
+    <row r="21" spans="2:11" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="2:11" s="21" customFormat="1" ht="29" x14ac:dyDescent="0.4">
-      <c r="B22" s="25">
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:11" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.4">
+      <c r="B22" s="24">
         <v>42125</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="30">
         <v>93</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="29"/>
-    </row>
-    <row r="23" spans="2:11" s="21" customFormat="1" ht="29" x14ac:dyDescent="0.4">
-      <c r="B23" s="25">
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="28"/>
+    </row>
+    <row r="23" spans="2:11" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.4">
+      <c r="B23" s="24">
         <v>42276</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E23" s="28" t="s">
+      <c r="C23" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="37">
         <v>4143</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="29"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="2:11" ht="29" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>42293</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="41" t="s">
-        <v>536</v>
+      <c r="E24" s="27"/>
+      <c r="F24" s="37" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="29" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>42326</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="37">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.25">
+      <c r="B26" s="24">
+        <v>42332</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>596</v>
-      </c>
-      <c r="E25" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="41">
-        <v>5408</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
-        <v>42332</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="E26" s="28" t="s">
+      <c r="F26" s="37">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.25">
+      <c r="B27" s="24">
+        <v>42347</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="41">
-        <v>5724</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
-        <v>42347</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>653</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="41">
+      <c r="F27" s="37">
         <v>6401</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="41"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="41"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="41"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="41"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="41"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="37"/>
     </row>
     <row r="34" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="41"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="37"/>
     </row>
     <row r="35" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="41"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="37"/>
     </row>
     <row r="36" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="41"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="37"/>
     </row>
     <row r="37" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="41"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4556,10 +4859,10 @@
   <dimension ref="A1:W137"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F96" sqref="F96:G96"/>
+      <selection pane="bottomRight" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -4582,9 +4885,9 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4644,8 +4947,8 @@
       <c r="G4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="43" t="s">
-        <v>485</v>
+      <c r="H4" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4655,8 +4958,8 @@
       <c r="G5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="43" t="s">
-        <v>485</v>
+      <c r="H5" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4666,8 +4969,8 @@
       <c r="G6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="43" t="s">
-        <v>485</v>
+      <c r="H6" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4680,8 +4983,8 @@
       <c r="G7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="43" t="s">
-        <v>485</v>
+      <c r="H7" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4697,8 +5000,8 @@
       <c r="G8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="43" t="s">
-        <v>486</v>
+      <c r="H8" s="39" t="s">
+        <v>482</v>
       </c>
       <c r="I8" s="5">
         <v>900</v>
@@ -4711,8 +5014,8 @@
       <c r="G9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="45" t="s">
-        <v>534</v>
+      <c r="H9" s="41" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4722,8 +5025,8 @@
       <c r="G10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="44" t="s">
-        <v>487</v>
+      <c r="H10" s="40" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4733,12 +5036,12 @@
       <c r="G11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>488</v>
+      <c r="H11" s="40" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H12" s="43"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -4757,8 +5060,8 @@
       <c r="G13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="43" t="s">
-        <v>485</v>
+      <c r="H13" s="39" t="s">
+        <v>481</v>
       </c>
       <c r="J13" s="9"/>
     </row>
@@ -4773,8 +5076,8 @@
       <c r="G14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="43" t="s">
-        <v>485</v>
+      <c r="H14" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4786,10 +5089,10 @@
         <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>485</v>
+        <v>497</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4802,14 +5105,14 @@
       <c r="G16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="43" t="s">
-        <v>485</v>
+      <c r="H16" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="43"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
@@ -4827,8 +5130,8 @@
       <c r="G18" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="43" t="s">
-        <v>490</v>
+      <c r="H18" s="39" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4838,8 +5141,8 @@
       <c r="G19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="43" t="s">
-        <v>485</v>
+      <c r="H19" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4849,8 +5152,8 @@
       <c r="G20" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="43" t="s">
-        <v>491</v>
+      <c r="H20" s="39" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4863,13 +5166,13 @@
       <c r="G21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="43" t="s">
-        <v>491</v>
+      <c r="H21" s="39" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
-      <c r="H22" s="43"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
@@ -4887,8 +5190,8 @@
       <c r="G23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="43" t="s">
-        <v>485</v>
+      <c r="H23" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4898,8 +5201,8 @@
       <c r="G24" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="43" t="s">
-        <v>485</v>
+      <c r="H24" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4912,12 +5215,12 @@
       <c r="G25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="43" t="s">
-        <v>485</v>
+      <c r="H25" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="43"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -4938,8 +5241,8 @@
       <c r="G27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="43" t="s">
-        <v>492</v>
+      <c r="H27" s="39" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4952,8 +5255,8 @@
       <c r="G28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="43" t="s">
-        <v>493</v>
+      <c r="H28" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4966,8 +5269,8 @@
       <c r="G29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="43" t="s">
-        <v>494</v>
+      <c r="H29" s="39" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4985,8 +5288,8 @@
       <c r="G30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="43" t="s">
-        <v>494</v>
+      <c r="H30" s="39" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4999,8 +5302,8 @@
       <c r="G31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="43" t="s">
-        <v>493</v>
+      <c r="H31" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -5013,8 +5316,8 @@
       <c r="G32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="43" t="s">
-        <v>493</v>
+      <c r="H32" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -5027,8 +5330,8 @@
       <c r="G33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="43" t="s">
-        <v>493</v>
+      <c r="H33" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -5036,7 +5339,7 @@
       <c r="C34" s="5"/>
       <c r="E34" s="7"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="43"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
@@ -5054,8 +5357,8 @@
       <c r="G35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="43" t="s">
-        <v>493</v>
+      <c r="H35" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -5066,8 +5369,8 @@
       <c r="G36" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H36" s="43" t="s">
-        <v>496</v>
+      <c r="H36" s="39" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -5078,8 +5381,8 @@
       <c r="G37" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="43" t="s">
-        <v>493</v>
+      <c r="H37" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -5092,12 +5395,12 @@
       <c r="G38" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="43" t="s">
-        <v>493</v>
+      <c r="H38" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="43"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
@@ -5115,8 +5418,8 @@
       <c r="G40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="43" t="s">
-        <v>493</v>
+      <c r="H40" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -5126,8 +5429,8 @@
       <c r="G41" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="43" t="s">
-        <v>497</v>
+      <c r="H41" s="39" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -5137,8 +5440,8 @@
       <c r="G42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H42" s="43" t="s">
-        <v>493</v>
+      <c r="H42" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -5148,8 +5451,8 @@
       <c r="G43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="43" t="s">
-        <v>493</v>
+      <c r="H43" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -5165,8 +5468,8 @@
       <c r="G44" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="43" t="s">
-        <v>498</v>
+      <c r="H44" s="39" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -5177,8 +5480,8 @@
       <c r="G45" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H45" s="43" t="s">
-        <v>493</v>
+      <c r="H45" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -5188,12 +5491,12 @@
       <c r="G46" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H46" s="43" t="s">
-        <v>493</v>
+      <c r="H46" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H47" s="43"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
@@ -5214,8 +5517,8 @@
       <c r="G48" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="43" t="s">
-        <v>499</v>
+      <c r="H48" s="39" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -5225,8 +5528,8 @@
       <c r="G49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="43" t="s">
-        <v>493</v>
+      <c r="H49" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -5236,8 +5539,8 @@
       <c r="G50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="43" t="s">
-        <v>493</v>
+      <c r="H50" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -5253,8 +5556,8 @@
       <c r="G51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="43" t="s">
-        <v>500</v>
+      <c r="H51" s="39" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -5264,8 +5567,8 @@
       <c r="G52" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="43" t="s">
-        <v>493</v>
+      <c r="H52" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -5275,8 +5578,8 @@
       <c r="G53" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="43" t="s">
-        <v>493</v>
+      <c r="H53" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -5284,7 +5587,7 @@
       <c r="C54" s="5"/>
       <c r="E54" s="7"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="43"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="2:23" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
@@ -5302,10 +5605,10 @@
       <c r="G55" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="43" t="s">
-        <v>495</v>
-      </c>
-      <c r="W55" s="35"/>
+      <c r="H55" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="W55" s="32"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F56" s="5" t="s">
@@ -5314,8 +5617,8 @@
       <c r="G56" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="43" t="s">
-        <v>495</v>
+      <c r="H56" s="39" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -5325,8 +5628,8 @@
       <c r="G57" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="43" t="s">
-        <v>495</v>
+      <c r="H57" s="39" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -5336,12 +5639,12 @@
       <c r="G58" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="43" t="s">
-        <v>495</v>
+      <c r="H58" s="39" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="H59" s="43"/>
+      <c r="H59" s="39"/>
     </row>
     <row r="60" spans="2:23" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
@@ -5359,8 +5662,8 @@
       <c r="G60" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H60" s="43" t="s">
-        <v>495</v>
+      <c r="H60" s="39" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -5370,8 +5673,8 @@
       <c r="G61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H61" s="43" t="s">
-        <v>495</v>
+      <c r="H61" s="39" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -5381,8 +5684,8 @@
       <c r="G62" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H62" s="43" t="s">
-        <v>495</v>
+      <c r="H62" s="39" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -5392,12 +5695,12 @@
       <c r="G63" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H63" s="43" t="s">
-        <v>495</v>
+      <c r="H63" s="39" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="H64" s="43"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
@@ -5423,8 +5726,8 @@
       <c r="G66" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H66" s="43" t="s">
-        <v>493</v>
+      <c r="H66" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5437,8 +5740,8 @@
       <c r="G67" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H67" s="43" t="s">
-        <v>493</v>
+      <c r="H67" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5456,8 +5759,8 @@
       <c r="G68" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H68" s="43" t="s">
-        <v>493</v>
+      <c r="H68" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5470,8 +5773,8 @@
       <c r="G69" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H69" s="43" t="s">
-        <v>493</v>
+      <c r="H69" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5484,8 +5787,8 @@
       <c r="G70" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="H70" s="43" t="s">
-        <v>493</v>
+      <c r="H70" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5498,8 +5801,8 @@
       <c r="G71" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H71" s="43" t="s">
-        <v>493</v>
+      <c r="H71" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5517,8 +5820,8 @@
       <c r="G72" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H72" s="43" t="s">
-        <v>493</v>
+      <c r="H72" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5531,15 +5834,15 @@
       <c r="G73" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H73" s="43" t="s">
-        <v>493</v>
+      <c r="H73" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
-      <c r="H74" s="43"/>
+      <c r="H74" s="39"/>
     </row>
     <row r="75" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
@@ -5560,8 +5863,8 @@
       <c r="G75" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="H75" s="43" t="s">
-        <v>502</v>
+      <c r="H75" s="39" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5574,8 +5877,8 @@
       <c r="G76" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="H76" s="43" t="s">
-        <v>503</v>
+      <c r="H76" s="39" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5593,8 +5896,8 @@
       <c r="G77" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H77" s="43" t="s">
-        <v>504</v>
+      <c r="H77" s="39" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5607,8 +5910,8 @@
       <c r="G78" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="H78" s="43" t="s">
-        <v>502</v>
+      <c r="H78" s="39" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5621,8 +5924,8 @@
       <c r="G79" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H79" s="43" t="s">
-        <v>502</v>
+      <c r="H79" s="39" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5640,8 +5943,8 @@
       <c r="G80" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="H80" s="43" t="s">
-        <v>503</v>
+      <c r="H80" s="39" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5654,15 +5957,15 @@
       <c r="G81" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H81" s="43" t="s">
-        <v>503</v>
+      <c r="H81" s="39" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="H82" s="43"/>
+      <c r="H82" s="39"/>
     </row>
     <row r="83" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
@@ -5688,8 +5991,8 @@
       <c r="G84" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H84" s="43" t="s">
-        <v>493</v>
+      <c r="H84" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5699,8 +6002,8 @@
       <c r="G85" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H85" s="43" t="s">
-        <v>493</v>
+      <c r="H85" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5710,8 +6013,8 @@
       <c r="G86" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H86" s="43" t="s">
-        <v>493</v>
+      <c r="H86" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5721,8 +6024,8 @@
       <c r="G87" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H87" s="43" t="s">
-        <v>493</v>
+      <c r="H87" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5735,8 +6038,8 @@
       <c r="G88" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H88" s="43" t="s">
-        <v>494</v>
+      <c r="H88" s="39" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5752,8 +6055,8 @@
       <c r="G89" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H89" s="43" t="s">
-        <v>493</v>
+      <c r="H89" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5763,12 +6066,12 @@
       <c r="G90" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H90" s="43" t="s">
-        <v>493</v>
+      <c r="H90" s="39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H91" s="43"/>
+      <c r="H91" s="39"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
@@ -5786,8 +6089,8 @@
       <c r="G92" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H92" s="43" t="s">
-        <v>530</v>
+      <c r="H92" s="39" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5800,8 +6103,8 @@
       <c r="G93" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H93" s="43" t="s">
-        <v>531</v>
+      <c r="H93" s="39" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="29" x14ac:dyDescent="0.25">
@@ -5817,8 +6120,8 @@
       <c r="G94" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H94" s="43" t="s">
-        <v>532</v>
+      <c r="H94" s="39" t="s">
+        <v>527</v>
       </c>
       <c r="I94" s="5">
         <v>903</v>
@@ -5831,19 +6134,19 @@
       <c r="G95" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H95" s="43" t="s">
-        <v>530</v>
+      <c r="H95" s="39" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F96" s="55" t="s">
+      <c r="F96" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="G96" s="56" t="s">
-        <v>603</v>
-      </c>
-      <c r="H96" s="43" t="s">
-        <v>530</v>
+      <c r="G96" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="H96" s="39" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5853,12 +6156,12 @@
       <c r="G97" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H97" s="43" t="s">
-        <v>530</v>
+      <c r="H97" s="39" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H98" s="43"/>
+      <c r="H98" s="39"/>
     </row>
     <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
@@ -5876,8 +6179,8 @@
       <c r="G99" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H99" s="43" t="s">
-        <v>533</v>
+      <c r="H99" s="39" t="s">
+        <v>528</v>
       </c>
       <c r="I99" s="5">
         <v>909</v>
@@ -5890,8 +6193,8 @@
       <c r="G100" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H100" s="43" t="s">
-        <v>529</v>
+      <c r="H100" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5901,8 +6204,8 @@
       <c r="G101" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H101" s="43" t="s">
-        <v>529</v>
+      <c r="H101" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5912,12 +6215,12 @@
       <c r="G102" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H102" s="43" t="s">
-        <v>529</v>
+      <c r="H102" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H103" s="43"/>
+      <c r="H103" s="39"/>
     </row>
     <row r="104" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
@@ -5933,24 +6236,24 @@
         <v>185</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="H104" s="43" t="s">
-        <v>529</v>
+        <v>556</v>
+      </c>
+      <c r="H104" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="33" t="s">
         <v>184</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>176</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="H105" s="43" t="s">
-        <v>529</v>
+        <v>557</v>
+      </c>
+      <c r="H105" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.25">
@@ -5958,10 +6261,10 @@
         <v>177</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="H106" s="43" t="s">
-        <v>529</v>
+        <v>558</v>
+      </c>
+      <c r="H106" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="29" x14ac:dyDescent="0.25">
@@ -5969,15 +6272,15 @@
         <v>175</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="H107" s="43" t="s">
-        <v>529</v>
+        <v>559</v>
+      </c>
+      <c r="H107" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -5987,10 +6290,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -6125,13 +6428,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
+      <selection pane="bottomRight" activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -6150,13 +6453,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6210,76 +6513,76 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>189</v>
+      <c r="E4" s="5">
+        <v>100001999999999</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>489</v>
+        <v>190</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="F5" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>485</v>
+        <v>189</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G6" s="5"/>
-      <c r="H6" s="43"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>485</v>
+      <c r="H7" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>485</v>
+      <c r="H8" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>506</v>
+        <v>501</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6287,191 +6590,202 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>506</v>
+        <v>199</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H11" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
-      <c r="F12" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>604</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>508</v>
+      <c r="I12" s="5">
+        <v>2048</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>485</v>
+        <v>555</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>481</v>
       </c>
       <c r="I13" s="5">
         <v>902</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="57">
+      <c r="D14" s="54">
         <v>3</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>508</v>
+      <c r="H14" s="39" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.25">
-      <c r="D15" s="57"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>509</v>
+        <v>198</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="57"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>509</v>
+        <v>200</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1327</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="57"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D18" s="54">
+        <v>4</v>
+      </c>
+      <c r="E18" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="43" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D18" s="6">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="54"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D20" s="54">
+        <v>5</v>
+      </c>
+      <c r="E20" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="43" t="s">
+      <c r="F20" s="55"/>
+      <c r="G20" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="H20" s="39" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
-      <c r="F19" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D20" s="6">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>511</v>
       </c>
       <c r="I20" s="5">
         <v>907</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>512</v>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="7"/>
-      <c r="F22" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>506</v>
+      <c r="D22" s="54"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>516</v>
+        <v>545</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>511</v>
       </c>
       <c r="I23" s="5">
         <v>927</v>
@@ -6479,13 +6793,13 @@
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>514</v>
+        <v>546</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
@@ -6493,13 +6807,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>514</v>
+        <v>249</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6507,47 +6821,47 @@
         <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>513</v>
+        <v>224</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>506</v>
+        <v>221</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>506</v>
+        <v>222</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>516</v>
+        <v>223</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>511</v>
       </c>
       <c r="I29" s="5">
         <v>905</v>
@@ -6555,24 +6869,24 @@
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>514</v>
+        <v>222</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>532</v>
+        <v>231</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>527</v>
       </c>
       <c r="I31" s="5">
         <v>1027</v>
@@ -6583,47 +6897,47 @@
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>517</v>
+        <v>232</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F33" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>506</v>
+        <v>236</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F34" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>506</v>
+        <v>237</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>507</v>
+        <v>238</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>503</v>
       </c>
       <c r="I35" s="5">
         <v>905</v>
@@ -6634,38 +6948,38 @@
         <v>9</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>506</v>
+        <v>240</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F37" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>506</v>
+        <v>213</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F38" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>518</v>
+        <v>243</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
@@ -6673,13 +6987,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>516</v>
+      <c r="H39" s="39" t="s">
+        <v>511</v>
       </c>
       <c r="I39" s="5">
         <v>908</v>
@@ -6687,24 +7001,24 @@
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>520</v>
+        <v>514</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F41" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>506</v>
+        <v>248</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
@@ -6712,13 +7026,13 @@
         <v>11</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>506</v>
+        <v>640</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -6726,13 +7040,13 @@
         <v>12</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>516</v>
+        <v>252</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>511</v>
       </c>
       <c r="I43" s="5">
         <v>909</v>
@@ -6740,79 +7054,79 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F44" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>513</v>
+        <v>253</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F45" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H45" s="45" t="s">
-        <v>516</v>
+        <v>254</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F46" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>513</v>
+        <v>255</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F47" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>513</v>
+        <v>256</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F48" s="5" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>513</v>
+        <v>257</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F49" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>485</v>
+      <c r="H49" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F50" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>485</v>
+      <c r="H50" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.25">
@@ -6820,24 +7134,24 @@
         <v>13</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>485</v>
+        <v>262</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F52" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="H52" s="43" t="s">
-        <v>507</v>
+        <v>639</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>503</v>
       </c>
       <c r="I52" s="5">
         <v>910</v>
@@ -6845,35 +7159,35 @@
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F53" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H53" s="43" t="s">
-        <v>513</v>
+        <v>267</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F54" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="H54" s="43" t="s">
-        <v>506</v>
+        <v>638</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F55" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="H55" s="43" t="s">
-        <v>513</v>
+        <v>634</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.25">
@@ -6881,61 +7195,61 @@
         <v>14</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H56" s="43"/>
+        <v>274</v>
+      </c>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="D57" s="6">
         <v>15</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="H57" s="43" t="s">
-        <v>506</v>
+        <v>637</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="58" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F58" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="H58" s="43" t="s">
-        <v>489</v>
+        <v>636</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F59" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H59" s="43" t="s">
-        <v>489</v>
+        <v>283</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F60" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H60" s="45" t="s">
-        <v>537</v>
+        <v>283</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>532</v>
       </c>
       <c r="I60" s="5">
         <v>928</v>
@@ -6946,88 +7260,88 @@
         <v>16</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H61" s="43" t="s">
-        <v>506</v>
+        <v>281</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F62" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H62" s="43" t="s">
-        <v>506</v>
+        <v>284</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F63" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H63" s="43" t="s">
-        <v>506</v>
+      <c r="H63" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="43"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D65" s="6">
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F65" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>506</v>
+      <c r="H65" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F66" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>518</v>
+        <v>635</v>
+      </c>
+      <c r="H66" s="39" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F67" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H67" s="43" t="s">
-        <v>506</v>
+        <v>308</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -7035,16 +7349,16 @@
         <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F68" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>516</v>
+      <c r="H68" s="39" t="s">
+        <v>511</v>
       </c>
       <c r="I68" s="5">
         <v>913</v>
@@ -7052,13 +7366,13 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F69" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H69" s="43" t="s">
-        <v>506</v>
+      <c r="H69" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -7066,16 +7380,16 @@
         <v>3</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H70" s="45" t="s">
-        <v>516</v>
+        <v>314</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>511</v>
       </c>
       <c r="I70" s="5">
         <v>927</v>
@@ -7083,1237 +7397,1987 @@
     </row>
     <row r="71" spans="2:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H71" s="43" t="s">
-        <v>513</v>
+        <v>324</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H72" s="43"/>
+      <c r="H72" s="39"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H73" s="43" t="s">
-        <v>506</v>
+        <v>328</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F74" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H74" s="43" t="s">
-        <v>506</v>
+        <v>321</v>
+      </c>
+      <c r="H74" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F75" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H75" s="43" t="s">
-        <v>506</v>
+        <v>323</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F76" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H76" s="43" t="s">
-        <v>506</v>
+        <v>322</v>
+      </c>
+      <c r="H76" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F77" s="7"/>
-      <c r="H77" s="43"/>
+      <c r="H77" s="39"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H78" s="43" t="s">
-        <v>506</v>
+        <v>330</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H79" s="43"/>
+      <c r="H79" s="39"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="57" t="s">
-        <v>647</v>
-      </c>
-      <c r="C80" s="57" t="s">
-        <v>648</v>
-      </c>
-      <c r="D80" s="57">
+      <c r="B80" s="54" t="s">
+        <v>641</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="D80" s="54">
         <v>1</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F80" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="G80" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="G80" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="H80" s="43"/>
+      <c r="H80" s="39" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
       <c r="E81" s="55"/>
       <c r="F81" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="G81" s="56" t="s">
-        <v>641</v>
-      </c>
-      <c r="H81" s="43"/>
+        <v>307</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="82" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
       <c r="E82" s="55"/>
       <c r="F82" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="G82" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="H82" s="43"/>
+        <v>305</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="H82" s="39" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57">
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54">
         <v>2</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F83" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="G83" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="G83" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="H83" s="43"/>
+      <c r="H83" s="39" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
       <c r="E84" s="55"/>
       <c r="F84" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="G84" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="G84" s="56" t="s">
+      <c r="H84" s="39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54">
+        <v>3</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="F85" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="G85" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="H84" s="43"/>
-    </row>
-    <row r="85" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57">
-        <v>3</v>
-      </c>
-      <c r="E85" s="56" t="s">
-        <v>650</v>
-      </c>
-      <c r="F85" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="G85" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="H85" s="43"/>
+      <c r="H85" s="39" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
       <c r="E86" s="55"/>
       <c r="F86" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="G86" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="H86" s="43"/>
+        <v>310</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="H86" s="39" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="87" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57">
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54">
         <v>4</v>
       </c>
-      <c r="E87" s="56" t="s">
-        <v>651</v>
+      <c r="E87" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="F87" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="G87" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="H87" s="43"/>
+        <v>309</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="H87" s="39" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
       <c r="E88" s="55"/>
       <c r="F88" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="G88" s="56" t="s">
-        <v>652</v>
-      </c>
-      <c r="H88" s="43"/>
+        <v>310</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="H88" s="39" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
       <c r="E89" s="55"/>
       <c r="F89" s="55"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="43"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="39"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="57" t="s">
-        <v>605</v>
-      </c>
-      <c r="C90" s="57" t="s">
-        <v>606</v>
-      </c>
-      <c r="D90" s="57">
+      <c r="B90" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="C90" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="D90" s="54">
         <v>1</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F90" s="55" t="s">
-        <v>608</v>
-      </c>
-      <c r="G90" s="56" t="s">
-        <v>615</v>
-      </c>
-      <c r="H90" s="59"/>
+        <v>602</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="H90" s="39" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
       <c r="E91" s="55"/>
       <c r="F91" s="55" t="s">
-        <v>609</v>
-      </c>
-      <c r="G91" s="56" t="s">
-        <v>616</v>
-      </c>
-      <c r="H91" s="59"/>
+        <v>603</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="H91" s="39" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="57"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
       <c r="E92" s="55"/>
       <c r="F92" s="55" t="s">
-        <v>610</v>
-      </c>
-      <c r="G92" s="56" t="s">
-        <v>615</v>
-      </c>
-      <c r="H92" s="59"/>
+        <v>604</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="H92" s="39" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="55"/>
       <c r="F93" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="G93" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="G93" s="56" t="s">
-        <v>617</v>
-      </c>
-      <c r="H93" s="59"/>
+      <c r="H93" s="39" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
       <c r="E94" s="55"/>
       <c r="F94" s="55" t="s">
+        <v>606</v>
+      </c>
+      <c r="G94" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="G94" s="56" t="s">
+      <c r="H94" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="54"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="H95" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="H96" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B97" s="54"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="H97" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="G98" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="H94" s="59"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="56" t="s">
-        <v>613</v>
-      </c>
-      <c r="G95" s="56" t="s">
+      <c r="H98" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="H99" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="G100" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="H95" s="59"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="G96" s="56" t="s">
-        <v>619</v>
-      </c>
-      <c r="H96" s="59"/>
-    </row>
-    <row r="97" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="57"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="56" t="s">
+      <c r="H100" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="G101" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="G97" s="56" t="s">
-        <v>619</v>
-      </c>
-      <c r="H97" s="59"/>
-    </row>
-    <row r="98" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B98" s="57"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="56" t="s">
-        <v>622</v>
-      </c>
-      <c r="G98" s="56" t="s">
+      <c r="H101" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54">
+        <v>2</v>
+      </c>
+      <c r="E102" s="55" t="s">
         <v>624</v>
       </c>
-      <c r="H98" s="59"/>
-    </row>
-    <row r="99" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="56" t="s">
-        <v>623</v>
-      </c>
-      <c r="G99" s="56" t="s">
+      <c r="F102" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="H99" s="59"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="56" t="s">
+      <c r="G102" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="H102" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="G103" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G100" s="56" t="s">
-        <v>626</v>
-      </c>
-      <c r="H100" s="59"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="G101" s="56" t="s">
+      <c r="H103" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="H101" s="59"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57">
-        <v>2</v>
-      </c>
-      <c r="E102" s="55" t="s">
+      <c r="G104" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="F102" s="56" t="s">
+      <c r="H104" s="39" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54">
+        <v>3</v>
+      </c>
+      <c r="E105" s="55" t="s">
         <v>631</v>
       </c>
-      <c r="G102" s="56" t="s">
-        <v>634</v>
-      </c>
-      <c r="H102" s="59"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="56" t="s">
-        <v>632</v>
-      </c>
-      <c r="G103" s="56" t="s">
-        <v>635</v>
-      </c>
-      <c r="H103" s="59"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="56" t="s">
-        <v>633</v>
-      </c>
-      <c r="G104" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="H104" s="59"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57">
-        <v>3</v>
-      </c>
-      <c r="E105" s="55" t="s">
-        <v>637</v>
-      </c>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56" t="s">
-        <v>664</v>
-      </c>
-      <c r="H105" s="59"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="H105" s="39"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H106" s="43"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="39"/>
     </row>
     <row r="107" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
-        <v>654</v>
-      </c>
-      <c r="C107" s="57" t="s">
+      <c r="B107" s="54" t="s">
+        <v>648</v>
+      </c>
+      <c r="C107" s="54" t="s">
+        <v>649</v>
+      </c>
+      <c r="D107" s="54">
+        <v>1</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="F107" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="G107" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="D107" s="57">
-        <v>1</v>
-      </c>
-      <c r="E107" s="56" t="s">
-        <v>656</v>
-      </c>
-      <c r="F107" s="55" t="s">
-        <v>657</v>
-      </c>
-      <c r="G107" s="56" t="s">
-        <v>661</v>
-      </c>
-      <c r="H107" s="43"/>
+      <c r="H107" s="39" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="55"/>
       <c r="F108" s="55" t="s">
-        <v>658</v>
-      </c>
-      <c r="G108" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="H108" s="43"/>
+        <v>652</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="H108" s="39" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
       <c r="E109" s="55"/>
       <c r="F109" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="G109" s="56" t="s">
-        <v>662</v>
-      </c>
-      <c r="H109" s="43"/>
+        <v>653</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="H109" s="39" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="54"/>
       <c r="E110" s="55"/>
       <c r="F110" s="55" t="s">
-        <v>660</v>
-      </c>
-      <c r="G110" s="56" t="s">
+        <v>654</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="H110" s="39" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54">
+        <v>2</v>
+      </c>
+      <c r="E111" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="F111" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="G111" s="17" t="s">
         <v>664</v>
       </c>
-      <c r="H110" s="43"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57">
-        <v>2</v>
-      </c>
-      <c r="E111" s="55" t="s">
-        <v>668</v>
-      </c>
-      <c r="F111" s="55" t="s">
-        <v>665</v>
-      </c>
-      <c r="G111" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="H111" s="43"/>
+      <c r="H111" s="39" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
       <c r="E112" s="55"/>
       <c r="F112" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="G112" s="56" t="s">
-        <v>671</v>
-      </c>
-      <c r="H112" s="43"/>
+        <v>661</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="H112" s="39" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="55"/>
       <c r="F113" s="55" t="s">
+        <v>660</v>
+      </c>
+      <c r="G113" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="G113" s="56" t="s">
-        <v>672</v>
-      </c>
-      <c r="H113" s="43"/>
+      <c r="H113" s="39" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="57"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57">
+      <c r="B114" s="54"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="54">
         <v>3</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F114" s="55" t="s">
-        <v>665</v>
-      </c>
-      <c r="G114" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="H114" s="43"/>
+        <v>659</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="H114" s="39" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
-      <c r="C115" s="57"/>
-      <c r="D115" s="57"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
       <c r="E115" s="55"/>
       <c r="F115" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="G115" s="56" t="s">
-        <v>671</v>
-      </c>
-      <c r="H115" s="43"/>
+        <v>661</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="H115" s="39" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="57"/>
-      <c r="C116" s="57"/>
-      <c r="D116" s="57"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
       <c r="E116" s="55"/>
       <c r="F116" s="55" t="s">
+        <v>660</v>
+      </c>
+      <c r="G116" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="G116" s="56" t="s">
-        <v>672</v>
-      </c>
-      <c r="H116" s="43"/>
+      <c r="H116" s="39" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="57"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="54"/>
       <c r="E117" s="55"/>
       <c r="F117" s="55"/>
-      <c r="G117" s="56"/>
-      <c r="H117" s="43"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="39"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H118" s="43"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="39"/>
     </row>
     <row r="119" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D119" s="6">
+      <c r="B119" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C119" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D119" s="54">
         <v>1</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="H119" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B120" s="54"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="G120" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="H120" s="39"/>
+    </row>
+    <row r="121" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B121" s="54"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H121" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="F119" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="H119" s="43" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F120" s="46" t="s">
-        <v>524</v>
-      </c>
-      <c r="G120" s="46" t="s">
+      <c r="G122" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="H122" s="39"/>
+    </row>
+    <row r="123" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="G123" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="H120" s="43"/>
-    </row>
-    <row r="121" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F121" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="H121" s="43" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F122" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="G122" s="46" t="s">
+      <c r="H123" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B124" s="54"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="54">
+        <v>2</v>
+      </c>
+      <c r="E124" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="H122" s="43"/>
-    </row>
-    <row r="123" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F123" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G123" s="7" t="s">
+      <c r="F124" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="H123" s="43" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D124" s="6">
-        <v>2</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F124" s="7" t="s">
+      <c r="G124" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="G124" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H124" s="45" t="s">
-        <v>516</v>
+      <c r="H124" s="41" t="s">
+        <v>511</v>
       </c>
       <c r="I124" s="5">
         <v>919</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F125" s="5" t="s">
+      <c r="B125" s="54"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="G125" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="G125" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H125" s="43" t="s">
-        <v>506</v>
+      <c r="H125" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H126" s="43"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="39"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="C127" s="57" t="s">
-        <v>453</v>
-      </c>
-      <c r="D127" s="57">
+      <c r="B127" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="D127" s="54">
         <v>1</v>
       </c>
       <c r="E127" s="55" t="s">
-        <v>454</v>
+        <v>693</v>
       </c>
       <c r="F127" s="55"/>
-      <c r="G127" s="56" t="s">
-        <v>673</v>
-      </c>
-      <c r="H127" s="43" t="s">
-        <v>522</v>
+      <c r="G127" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="H127" s="39" t="s">
+        <v>517</v>
       </c>
       <c r="I127" s="5">
         <v>911</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="57"/>
-      <c r="C128" s="57"/>
-      <c r="D128" s="57"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
       <c r="E128" s="55"/>
       <c r="F128" s="55" t="s">
-        <v>674</v>
-      </c>
-      <c r="G128" s="56" t="s">
-        <v>677</v>
-      </c>
-      <c r="H128" s="43"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="57"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="57"/>
+        <v>668</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="H128" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="54"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="54"/>
       <c r="E129" s="55"/>
       <c r="F129" s="55" t="s">
-        <v>675</v>
-      </c>
-      <c r="G129" s="56" t="s">
-        <v>677</v>
-      </c>
-      <c r="H129" s="43"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="57"/>
-      <c r="C130" s="57"/>
-      <c r="D130" s="57"/>
+        <v>669</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="H129" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="54"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="54"/>
       <c r="E130" s="55"/>
       <c r="F130" s="55" t="s">
+        <v>670</v>
+      </c>
+      <c r="G130" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="H130" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="G130" s="56" t="s">
-        <v>677</v>
-      </c>
-      <c r="H130" s="43"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H131" s="43"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="34" t="s">
+      <c r="I130" s="5">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="54"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="52">
+        <v>2</v>
+      </c>
+      <c r="E131" s="50" t="s">
+        <v>694</v>
+      </c>
+      <c r="F131" s="50"/>
+      <c r="G131" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="H131" s="39"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50" t="s">
+        <v>696</v>
+      </c>
+      <c r="G132" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="H132" s="39"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="54"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="39"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="55"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="39"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H135" s="39"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="C136" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="D136" s="52">
+        <v>1</v>
+      </c>
+      <c r="E136" s="50" t="s">
+        <v>678</v>
+      </c>
+      <c r="F136" s="50"/>
+      <c r="G136" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="H136" s="39"/>
+    </row>
+    <row r="137" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="52"/>
+      <c r="C137" s="58"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50" t="s">
+        <v>680</v>
+      </c>
+      <c r="G137" s="51" t="s">
+        <v>681</v>
+      </c>
+      <c r="H137" s="53"/>
+    </row>
+    <row r="138" spans="2:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="B138" s="52"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="50"/>
+      <c r="F138" s="50" t="s">
+        <v>682</v>
+      </c>
+      <c r="G138" s="51" t="s">
+        <v>684</v>
+      </c>
+      <c r="H138" s="53"/>
+    </row>
+    <row r="139" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="52"/>
+      <c r="C139" s="58"/>
+      <c r="D139" s="52">
+        <v>2</v>
+      </c>
+      <c r="E139" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="F139" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="G139" s="51" t="s">
+        <v>683</v>
+      </c>
+      <c r="H139" s="53"/>
+    </row>
+    <row r="140" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="52"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="G140" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="H140" s="53"/>
+    </row>
+    <row r="141" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="52"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="50" t="s">
+        <v>554</v>
+      </c>
+      <c r="G141" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="H141" s="53"/>
+    </row>
+    <row r="142" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="52"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="52">
+        <v>3</v>
+      </c>
+      <c r="E142" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="F142" s="50" t="s">
+        <v>686</v>
+      </c>
+      <c r="G142" s="50" t="s">
+        <v>687</v>
+      </c>
+      <c r="H142" s="53"/>
+    </row>
+    <row r="143" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="52"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="50" t="s">
+        <v>688</v>
+      </c>
+      <c r="G143" s="50" t="s">
+        <v>711</v>
+      </c>
+      <c r="H143" s="53"/>
+    </row>
+    <row r="144" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="52"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50" t="s">
+        <v>697</v>
+      </c>
+      <c r="G144" s="51" t="s">
+        <v>690</v>
+      </c>
+      <c r="H144" s="53"/>
+    </row>
+    <row r="145" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="52"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="52">
+        <v>4</v>
+      </c>
+      <c r="E145" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="F145" s="50"/>
+      <c r="G145" s="51" t="s">
+        <v>713</v>
+      </c>
+      <c r="H145" s="53"/>
+    </row>
+    <row r="146" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="52"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="G146" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="H146" s="53"/>
+    </row>
+    <row r="147" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="52"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="G147" s="51" t="s">
+        <v>717</v>
+      </c>
+      <c r="H147" s="53"/>
+    </row>
+    <row r="148" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="52"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="52">
+        <v>5</v>
+      </c>
+      <c r="E148" s="50" t="s">
+        <v>718</v>
+      </c>
+      <c r="F148" s="50"/>
+      <c r="G148" s="51" t="s">
+        <v>719</v>
+      </c>
+      <c r="H148" s="53"/>
+    </row>
+    <row r="149" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="52"/>
+      <c r="C149" s="58"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="G149" s="51" t="s">
+        <v>720</v>
+      </c>
+      <c r="H149" s="53"/>
+    </row>
+    <row r="150" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="52"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="G150" s="51" t="s">
+        <v>721</v>
+      </c>
+      <c r="H150" s="53"/>
+    </row>
+    <row r="151" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="52"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="52">
+        <v>6</v>
+      </c>
+      <c r="E151" s="50" t="s">
+        <v>722</v>
+      </c>
+      <c r="F151" s="50"/>
+      <c r="G151" s="51" t="s">
+        <v>723</v>
+      </c>
+      <c r="H151" s="53"/>
+    </row>
+    <row r="152" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="52"/>
+      <c r="C152" s="58"/>
+      <c r="D152" s="52"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="G152" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="H152" s="53"/>
+    </row>
+    <row r="153" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="52"/>
+      <c r="C153" s="58"/>
+      <c r="D153" s="52"/>
+      <c r="E153" s="50"/>
+      <c r="F153" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="G153" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="H153" s="53"/>
+    </row>
+    <row r="154" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="52"/>
+      <c r="C154" s="58"/>
+      <c r="D154" s="52">
+        <v>7</v>
+      </c>
+      <c r="E154" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="F154" s="50"/>
+      <c r="G154" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="H154" s="53"/>
+    </row>
+    <row r="155" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="52"/>
+      <c r="C155" s="58"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50" t="s">
+        <v>727</v>
+      </c>
+      <c r="G155" s="51" t="s">
+        <v>736</v>
+      </c>
+      <c r="H155" s="53"/>
+    </row>
+    <row r="156" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="52"/>
+      <c r="C156" s="58"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="G156" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="H156" s="53"/>
+    </row>
+    <row r="157" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="52"/>
+      <c r="C157" s="58"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50" t="s">
+        <v>729</v>
+      </c>
+      <c r="G157" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="H157" s="53"/>
+    </row>
+    <row r="158" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="52"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="G158" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="H158" s="53"/>
+    </row>
+    <row r="159" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="52"/>
+      <c r="C159" s="58"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="50" t="s">
+        <v>731</v>
+      </c>
+      <c r="G159" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="H159" s="53"/>
+    </row>
+    <row r="160" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="52"/>
+      <c r="C160" s="58"/>
+      <c r="D160" s="52"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="G160" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="H160" s="53"/>
+    </row>
+    <row r="161" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="52"/>
+      <c r="C161" s="58"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="50"/>
+      <c r="F161" s="50" t="s">
+        <v>733</v>
+      </c>
+      <c r="G161" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="H161" s="53"/>
+    </row>
+    <row r="162" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="52"/>
+      <c r="C162" s="58"/>
+      <c r="D162" s="52"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="50" t="s">
+        <v>734</v>
+      </c>
+      <c r="G162" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="H162" s="53"/>
+    </row>
+    <row r="163" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="52"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="52">
+        <v>8</v>
+      </c>
+      <c r="E163" s="50" t="s">
+        <v>737</v>
+      </c>
+      <c r="F163" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="G163" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="H163" s="53"/>
+    </row>
+    <row r="164" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="52"/>
+      <c r="C164" s="58"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="50" t="s">
+        <v>729</v>
+      </c>
+      <c r="G164" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="H164" s="53"/>
+    </row>
+    <row r="165" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="52"/>
+      <c r="C165" s="58"/>
+      <c r="D165" s="52"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="G165" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="H165" s="53"/>
+    </row>
+    <row r="166" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="52"/>
+      <c r="C166" s="58"/>
+      <c r="D166" s="52"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="50" t="s">
+        <v>731</v>
+      </c>
+      <c r="G166" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="H166" s="53"/>
+    </row>
+    <row r="167" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="52"/>
+      <c r="C167" s="58"/>
+      <c r="D167" s="52"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="G167" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="H167" s="53"/>
+    </row>
+    <row r="168" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="52"/>
+      <c r="C168" s="58"/>
+      <c r="D168" s="52"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50" t="s">
+        <v>733</v>
+      </c>
+      <c r="G168" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="H168" s="53"/>
+    </row>
+    <row r="169" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="52"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50" t="s">
+        <v>734</v>
+      </c>
+      <c r="G169" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="H169" s="53"/>
+    </row>
+    <row r="170" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="52"/>
+      <c r="C170" s="58"/>
+      <c r="D170" s="52">
+        <v>9</v>
+      </c>
+      <c r="E170" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="F170" s="51"/>
+      <c r="G170" s="51" t="s">
+        <v>689</v>
+      </c>
+      <c r="H170" s="53"/>
+    </row>
+    <row r="171" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="52"/>
+      <c r="C171" s="58"/>
+      <c r="D171" s="52">
+        <v>10</v>
+      </c>
+      <c r="E171" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F171" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="G171" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="H171" s="53"/>
+    </row>
+    <row r="172" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="52"/>
+      <c r="C172" s="58"/>
+      <c r="D172" s="52"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="G172" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="H172" s="53"/>
+    </row>
+    <row r="173" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="52"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="50"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="50"/>
+      <c r="G173" s="50"/>
+      <c r="H173" s="53"/>
+    </row>
+    <row r="174" spans="2:8" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="B174" s="52" t="s">
+        <v>692</v>
+      </c>
+      <c r="C174" s="58" t="s">
+        <v>691</v>
+      </c>
+      <c r="D174" s="52">
+        <v>1</v>
+      </c>
+      <c r="E174" s="51" t="s">
+        <v>702</v>
+      </c>
+      <c r="F174" s="50"/>
+      <c r="G174" s="50" t="s">
+        <v>698</v>
+      </c>
+      <c r="H174" s="53"/>
+    </row>
+    <row r="175" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="52"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="50"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="50" t="s">
+        <v>699</v>
+      </c>
+      <c r="G175" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="H175" s="53"/>
+    </row>
+    <row r="176" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="52"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="50"/>
+      <c r="E176" s="50"/>
+      <c r="F176" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="G176" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="H176" s="53"/>
+    </row>
+    <row r="177" spans="1:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="B177" s="52"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="51"/>
+      <c r="F177" s="50" t="s">
+        <v>700</v>
+      </c>
+      <c r="G177" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="H177" s="53"/>
+    </row>
+    <row r="178" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="52"/>
+      <c r="C178" s="58"/>
+      <c r="D178" s="52">
+        <v>2</v>
+      </c>
+      <c r="E178" s="50" t="s">
+        <v>705</v>
+      </c>
+      <c r="F178" s="50"/>
+      <c r="G178" s="51" t="s">
+        <v>706</v>
+      </c>
+      <c r="H178" s="53"/>
+    </row>
+    <row r="179" spans="1:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="B179" s="52"/>
+      <c r="C179" s="58"/>
+      <c r="D179" s="52"/>
+      <c r="E179" s="51"/>
+      <c r="F179" s="51" t="s">
+        <v>707</v>
+      </c>
+      <c r="G179" s="51" t="s">
+        <v>708</v>
+      </c>
+      <c r="H179" s="53"/>
+    </row>
+    <row r="180" spans="1:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="B180" s="52"/>
+      <c r="C180" s="58"/>
+      <c r="D180" s="52"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="51" t="s">
+        <v>709</v>
+      </c>
+      <c r="G180" s="51" t="s">
+        <v>710</v>
+      </c>
+      <c r="H180" s="53"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C181" s="8"/>
+      <c r="H181" s="39"/>
+    </row>
+    <row r="182" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="35"/>
+      <c r="B182" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D182" s="6">
+        <v>1</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H182" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="I182" s="36">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="35"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C132" s="40" t="s">
+      <c r="H183" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="35"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H184" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="35"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H185" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A186" s="35"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6">
+        <v>2</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H186" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="35"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="52">
+        <v>3</v>
+      </c>
+      <c r="E187" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="F187" s="51"/>
+      <c r="G187" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="H187" s="39"/>
+    </row>
+    <row r="188" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="35"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="59">
+        <v>3</v>
+      </c>
+      <c r="E188" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="F188" s="61"/>
+      <c r="G188" s="61" t="s">
+        <v>463</v>
+      </c>
+      <c r="H188" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="35"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="59"/>
+      <c r="E189" s="60"/>
+      <c r="F189" s="61" t="s">
+        <v>448</v>
+      </c>
+      <c r="G189" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="H189" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="35"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="59"/>
+      <c r="E190" s="60"/>
+      <c r="F190" s="61" t="s">
+        <v>441</v>
+      </c>
+      <c r="G190" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="H190" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="I190" s="36">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="35"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="59">
+        <v>4</v>
+      </c>
+      <c r="E191" s="60" t="s">
+        <v>456</v>
+      </c>
+      <c r="F191" s="61"/>
+      <c r="G191" s="61" t="s">
         <v>455</v>
       </c>
-      <c r="D132" s="34"/>
-      <c r="E132" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="F132" s="33"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="43"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="34"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="43"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="34"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="43"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C135" s="8"/>
-      <c r="H135" s="43"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C136" s="8"/>
-      <c r="H136" s="43"/>
-    </row>
-    <row r="137" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
-      <c r="B137" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D137" s="6">
+      <c r="H191" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="A192" s="35"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="59"/>
+      <c r="E192" s="60"/>
+      <c r="F192" s="61" t="s">
+        <v>442</v>
+      </c>
+      <c r="G192" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="H192" s="39" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="35"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="65">
+        <v>5</v>
+      </c>
+      <c r="E193" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="F193" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="G193" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="H193" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="35"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="65"/>
+      <c r="E194" s="66"/>
+      <c r="F194" s="56" t="s">
+        <v>459</v>
+      </c>
+      <c r="G194" s="56" t="s">
+        <v>461</v>
+      </c>
+      <c r="H194" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="35"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6">
+        <v>6</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H195" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="35"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6">
+        <v>7</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H196" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="35"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="F197" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H197" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D198" s="6">
+        <v>8</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H198" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F199" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H199" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F200" s="7"/>
+      <c r="H200" s="39"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D201" s="6">
         <v>1</v>
       </c>
-      <c r="E137" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H137" s="43" t="s">
-        <v>485</v>
-      </c>
-      <c r="I137" s="39">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="38"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H138" s="43" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="38"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H139" s="43" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="38"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="H140" s="43" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="38"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6">
-        <v>2</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H141" s="43" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="38"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6">
-        <v>3</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="H142" s="43" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="38"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H143" s="43" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="38"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="H144" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="I144" s="39">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="38"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6">
-        <v>4</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="H145" s="43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="A146" s="38"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="H146" s="43" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6">
-        <v>5</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H147" s="43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="38"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H148" s="43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="38"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H149" s="43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="38"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6">
-        <v>6</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H150" s="43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="38"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6">
-        <v>7</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H151" s="43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="38"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="F152" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="H152" s="43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D153" s="6">
-        <v>8</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="H153" s="43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F154" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="H154" s="43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F155" s="7"/>
-      <c r="H155" s="43"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B156" s="6" t="s">
+      <c r="E201" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G201" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="H201" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="I201" s="5">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F202" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H202" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F203" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="D156" s="6">
-        <v>1</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="H156" s="43" t="s">
-        <v>485</v>
-      </c>
-      <c r="I156" s="5">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F157" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="H157" s="43" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F158" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="H158" s="43" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F159" s="7"/>
-    </row>
-    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F160" s="39"/>
-    </row>
-    <row r="161" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F161" s="39"/>
-    </row>
-    <row r="162" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F162" s="39"/>
-    </row>
-    <row r="163" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F163" s="39"/>
-    </row>
-    <row r="164" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F164" s="39"/>
-    </row>
-    <row r="165" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F165" s="39"/>
-    </row>
-    <row r="166" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F166" s="39"/>
-    </row>
-    <row r="167" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F167" s="39"/>
-    </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F168" s="7"/>
-    </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F169" s="7"/>
-    </row>
-    <row r="170" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F170" s="39"/>
-    </row>
-    <row r="171" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F171" s="39"/>
-    </row>
-    <row r="172" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F172" s="39"/>
+      <c r="G203" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H203" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F204" s="7"/>
+    </row>
+    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F205" s="36"/>
+    </row>
+    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F206" s="36"/>
+      <c r="G206" s="62">
+        <v>100200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F207" s="36"/>
+    </row>
+    <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F208" s="36"/>
+    </row>
+    <row r="209" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F209" s="36"/>
+    </row>
+    <row r="210" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F210" s="36"/>
+    </row>
+    <row r="211" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F211" s="36"/>
+    </row>
+    <row r="212" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F212" s="36"/>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F213" s="7"/>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F214" s="7"/>
+    </row>
+    <row r="215" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F215" s="36"/>
+    </row>
+    <row r="216" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F216" s="36"/>
+    </row>
+    <row r="217" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F217" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8336,7 +9400,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H155 H4:H118">
+  <conditionalFormatting sqref="H4:H118 H122:H200">
     <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -8380,7 +9444,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H156:H158">
+  <conditionalFormatting sqref="H201:H203">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -8392,7 +9456,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8401,10 +9466,10 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -8423,13 +9488,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8476,22 +9541,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>484</v>
+        <v>333</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -8499,37 +9564,37 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>538</v>
+        <v>335</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>538</v>
+        <v>345</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>539</v>
+        <v>346</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -8537,42 +9602,46 @@
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>540</v>
+        <v>340</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>535</v>
       </c>
       <c r="I8" s="5">
         <v>930</v>
       </c>
+      <c r="J8" s="5">
+        <f>5*5*5*5*5</f>
+        <v>3125</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>506</v>
+        <v>341</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>508</v>
+        <v>342</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8580,27 +9649,27 @@
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>513</v>
+        <v>348</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>506</v>
+        <v>540</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -8608,13 +9677,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>514</v>
+        <v>350</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -8622,27 +9691,27 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>506</v>
+        <v>353</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>569</v>
+        <v>563</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8650,42 +9719,42 @@
         <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>506</v>
+      <c r="H16" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>514</v>
+      <c r="H17" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>516</v>
+        <v>360</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>511</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
@@ -8693,60 +9762,60 @@
         <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>514</v>
+      <c r="H19" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>514</v>
+        <v>365</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>514</v>
+        <v>422</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>514</v>
+        <v>364</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>515</v>
+        <v>378</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.25">
@@ -8754,16 +9823,16 @@
         <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>546</v>
+        <v>371</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>541</v>
       </c>
       <c r="I24" s="5">
         <v>933</v>
@@ -8771,24 +9840,24 @@
     </row>
     <row r="25" spans="4:10" ht="29" x14ac:dyDescent="0.25">
       <c r="F25" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>516</v>
+        <v>423</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>516</v>
+      <c r="H26" s="39" t="s">
+        <v>511</v>
       </c>
       <c r="I26" s="5">
         <v>931</v>
@@ -8796,35 +9865,35 @@
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>506</v>
+      <c r="H27" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>513</v>
+        <v>379</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>514</v>
+        <v>380</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
@@ -8832,27 +9901,27 @@
         <v>10</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>514</v>
+      <c r="H30" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>541</v>
+      <c r="H31" s="39" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.25">
@@ -8860,36 +9929,36 @@
         <v>11</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>514</v>
+        <v>424</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="43"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>514</v>
+        <v>428</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -8897,50 +9966,50 @@
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>514</v>
+      <c r="H35" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F36" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>514</v>
+      <c r="H36" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H37" s="43"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>514</v>
+        <v>389</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -8949,38 +10018,38 @@
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>513</v>
+        <v>593</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>506</v>
+        <v>592</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F41" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>514</v>
+        <v>419</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -8988,38 +10057,38 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>542</v>
+        <v>397</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F43" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>542</v>
+        <v>398</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F44" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>542</v>
+        <v>399</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -9027,50 +10096,50 @@
         <v>4</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>529</v>
+      <c r="H45" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F46" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>529</v>
+      <c r="H46" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H47" s="43"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H48" s="45" t="s">
-        <v>516</v>
+        <v>408</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>511</v>
       </c>
       <c r="I48" s="5">
         <v>932</v>
@@ -9081,28 +10150,28 @@
         <v>2</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>529</v>
+        <v>409</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E50" s="7"/>
       <c r="F50" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>529</v>
+        <v>410</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
@@ -9110,28 +10179,28 @@
         <v>3</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>529</v>
+        <v>415</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E52" s="7"/>
       <c r="F52" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H52" s="43" t="s">
-        <v>529</v>
+        <v>414</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="4:8" ht="29" x14ac:dyDescent="0.25">
@@ -9139,28 +10208,28 @@
         <v>4</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H53" s="43" t="s">
-        <v>529</v>
+      <c r="H53" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E54" s="7"/>
       <c r="F54" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H54" s="43" t="s">
-        <v>529</v>
+      <c r="H54" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="4:8" ht="29" x14ac:dyDescent="0.25">
@@ -9168,28 +10237,28 @@
         <v>5</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F55" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H55" s="43" t="s">
-        <v>529</v>
+      <c r="H55" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E56" s="7"/>
       <c r="F56" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H56" s="43" t="s">
-        <v>529</v>
+        <v>408</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.25">
@@ -9248,7 +10317,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9268,264 +10338,264 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="D3" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="43" t="s">
         <v>573</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="B4" s="43" t="s">
         <v>574</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="48" t="s">
+      <c r="C4" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="D4" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="47" t="s">
+        <v>565</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>576</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>577</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="E3" s="48"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="48" t="s">
+      <c r="D5" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="42" t="s">
         <v>578</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B8" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>579</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>580</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="E4" s="48"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="52" t="s">
-        <v>570</v>
-      </c>
-      <c r="B5" s="52" t="s">
+      <c r="C9" s="45" t="s">
         <v>581</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="D9" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="47" t="s">
+        <v>565</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="43" t="s">
         <v>582</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="E5" s="48"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="48"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="48"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="47" t="s">
+      <c r="B12" s="43" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>597</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="48" t="s">
         <v>583</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>573</v>
-      </c>
-      <c r="C8" s="51" t="s">
+      <c r="B13" s="45" t="s">
         <v>584</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="48"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="C13" s="49" t="s">
         <v>585</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="E9" s="48"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="52" t="s">
-        <v>570</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>581</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>582</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="E10" s="48"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="48" t="s">
-        <v>587</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>601</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>602</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="53" t="s">
-        <v>588</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>589</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>590</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="D13" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D18" s="43"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="43"/>
+      <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D20" s="43"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D21" s="43"/>
+      <c r="D21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="43"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D23" s="43"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D24" s="43"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D25" s="43"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D26" s="43"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="43"/>
+      <c r="D27" s="39"/>
     </row>
     <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D28" s="43"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D29" s="43"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D30" s="43"/>
+      <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D31" s="43"/>
+      <c r="D31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D32" s="43"/>
+      <c r="D32" s="39"/>
     </row>
     <row r="33" spans="4:4" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D33" s="43"/>
+      <c r="D33" s="39"/>
     </row>
     <row r="34" spans="4:4" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D34" s="43"/>
+      <c r="D34" s="39"/>
     </row>
     <row r="35" spans="4:4" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D35" s="43"/>
+      <c r="D35" s="39"/>
     </row>
     <row r="36" spans="4:4" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D36" s="43"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="4:4" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D37" s="43"/>
+      <c r="D37" s="39"/>
     </row>
     <row r="38" spans="4:4" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D38" s="43"/>
+      <c r="D38" s="39"/>
     </row>
     <row r="39" spans="4:4" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D39" s="43"/>
+      <c r="D39" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -9556,70 +10626,70 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" t="s">
         <v>287</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/副本结算/副本结算测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="结算界面" sheetId="4" r:id="rId3"/>
     <sheet name="战斗复活" sheetId="6" r:id="rId4"/>
     <sheet name="多语言" sheetId="7" r:id="rId5"/>
-    <sheet name="sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="UI测试" sheetId="8" r:id="rId6"/>
+    <sheet name="sheet1" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="809">
   <si>
     <t>caseID</t>
   </si>
@@ -2812,14 +2813,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>从type不等于0的其他项中抽取三项</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一项为type等于0的项，后两项为其他项中抽取</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>查看失败项抽取情况</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2852,86 +2845,18 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>读取loseGuide.csv表对应项的name字段</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应项为A</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应项为B</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取项A的name字段</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取项B的name字段</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>查看指引列表图示</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>读取loseGuide.csv表对应项的picture字段</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取项A的picture字段</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取项B的picture字段</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>查看指引列表提示信息</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>读取loseGuide.csv表对应项的tips字段</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取项A的tips字段</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取项B的tips字段</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>查看指引列表跳转按钮</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>type= 1</t>
-  </si>
-  <si>
-    <t>type= 2</t>
-  </si>
-  <si>
-    <t>type= 3</t>
-  </si>
-  <si>
-    <t>type= 4</t>
-  </si>
-  <si>
-    <t>type= 5</t>
-  </si>
-  <si>
-    <t>type= 6</t>
-  </si>
-  <si>
-    <t>type= 7</t>
-  </si>
-  <si>
-    <t>type= 8</t>
-  </si>
-  <si>
     <t>存在跳转按钮</t>
   </si>
   <si>
@@ -2960,13 +2885,503 @@
   <si>
     <t>与抽蛋界面展示效果一致</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家进行副本，查看结算时触发情况</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示与名称对应的图示</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据展示内容显示对应标题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜寻弱点</t>
+  </si>
+  <si>
+    <t>聚合</t>
+  </si>
+  <si>
+    <t>进阶宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋</t>
+  </si>
+  <si>
+    <t>宠物升级</t>
+  </si>
+  <si>
+    <t>宠物进阶</t>
+  </si>
+  <si>
+    <t>宠物提升技能</t>
+  </si>
+  <si>
+    <t>装备装备</t>
+  </si>
+  <si>
+    <t>打造装备</t>
+  </si>
+  <si>
+    <t>镶嵌宝石</t>
+  </si>
+  <si>
+    <t>弱点</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示图示与内容对应</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示图示与内容对应</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示与名称对应的提示</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示提示与内容对应</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>从非弱点的其他项中抽取三项</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一项为弱点项，后两项为其他项中抽取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往</t>
+  </si>
+  <si>
+    <t>Go</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ose_guide1</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search for weakpoints</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ose_guide2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Gather</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ose_guide3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>升级宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level up your monsters</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ose_guide4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Advance your monsters</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ose_guide5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>升级技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade abilities</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ose_guide6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>更新装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip different equipment</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ose_guide7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>打造装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge equipment</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ose_guide8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>镶嵌宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed gems</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose_guidetips1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>善于利用照妖镜搜寻boss弱点，会让你事半功倍！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using the Magic Lens to spot enemy weakpoints can be a big help in defeating the enemy.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose_guidetips2</t>
+  </si>
+  <si>
+    <t>宠物不给力？试试聚合新的伙伴一同战斗吧！Fighting！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need stronger monsters? Try gathering more to fight together!</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose_guidetips3</t>
+  </si>
+  <si>
+    <t>通过战斗和宠物经验药可以提升宠物等级！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can upgrade your monsters by battling or using EXP Potions.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose_guidetips4</t>
+  </si>
+  <si>
+    <t>进阶宠物可以极大地提升宠物实力！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advancing a monster can greatly increase it's power!</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose_guidetips5</t>
+  </si>
+  <si>
+    <t>提升宠物技能可以使宠物变得更强！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increasing your monsters' abilities can improve their effectiveness in battle.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose_guidetips6</t>
+  </si>
+  <si>
+    <t>给宠物穿上装备，宠物会更强大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip more equipment on your monsters to make them stronger.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose_guidetips7</t>
+  </si>
+  <si>
+    <t>打造装备能够提升装备属性，进而提升宠物实力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forging your equipment can improve equipment stats and increase your monster's power.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose_guidetips8</t>
+  </si>
+  <si>
+    <t>可以给蓝色及以上品质的装备镶嵌宝石，提升装备属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment that is blue grade or better can be embedded with gems, increasing its stats.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_battle_go</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行失败指引测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端：9202
+服务器：9115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3113,6 +3528,18 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3197,7 +3624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3354,9 +3781,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3369,9 +3793,6 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3380,6 +3801,24 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4004,13 +4443,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>513500</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>180481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4253,16 +4692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>21693</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>66345</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104243</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>161595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4279,7 +4718,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10877550" y="34486850"/>
+          <a:off x="12217400" y="36607750"/>
           <a:ext cx="4257143" cy="2638095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4362,6 +4801,49 @@
         <a:xfrm>
           <a:off x="11329100" y="6102350"/>
           <a:ext cx="5554411" cy="3526702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241301</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2207</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1460501" y="0"/>
+          <a:ext cx="5247306" cy="3536950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4638,8 +5120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B21:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4778,12 +5260,20 @@
         <v>6401</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+    <row r="28" spans="2:11" ht="29" x14ac:dyDescent="0.25">
+      <c r="B28" s="24">
+        <v>42425</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>807</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="E28" s="27"/>
-      <c r="F28" s="37"/>
+      <c r="F28" s="37" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="29" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
@@ -4885,9 +5375,9 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6428,13 +6918,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D172" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G190" sqref="G190"/>
+      <selection pane="bottomRight" activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -6457,9 +6947,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6513,8 +7003,8 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
-        <v>100001999999999</v>
+      <c r="E4" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>449</v>
@@ -8298,30 +8788,34 @@
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="54"/>
       <c r="C131" s="54"/>
-      <c r="D131" s="52">
+      <c r="D131" s="54">
         <v>2</v>
       </c>
-      <c r="E131" s="50" t="s">
+      <c r="E131" s="55" t="s">
         <v>694</v>
       </c>
-      <c r="F131" s="50"/>
-      <c r="G131" s="51" t="s">
+      <c r="F131" s="55"/>
+      <c r="G131" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="H131" s="39"/>
+      <c r="H131" s="39" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="54"/>
       <c r="C132" s="54"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="50" t="s">
+      <c r="D132" s="54"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="55" t="s">
         <v>696</v>
       </c>
-      <c r="G132" s="51" t="s">
+      <c r="G132" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="H132" s="39"/>
+      <c r="H132" s="39" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="54"/>
@@ -8342,1042 +8836,1360 @@
       <c r="H134" s="39"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D135" s="54"/>
+      <c r="E135" s="55"/>
+      <c r="F135" s="55"/>
+      <c r="G135" s="17"/>
       <c r="H135" s="39"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="52" t="s">
+      <c r="B136" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="C136" s="58" t="s">
+      <c r="C136" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="D136" s="52">
+      <c r="D136" s="54">
         <v>1</v>
       </c>
-      <c r="E136" s="50" t="s">
+      <c r="E136" s="55" t="s">
         <v>678</v>
       </c>
-      <c r="F136" s="50"/>
-      <c r="G136" s="51" t="s">
+      <c r="F136" s="55"/>
+      <c r="G136" s="17" t="s">
         <v>679</v>
       </c>
-      <c r="H136" s="39"/>
+      <c r="H136" s="39" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="137" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="52"/>
-      <c r="C137" s="58"/>
-      <c r="D137" s="52"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50" t="s">
+      <c r="B137" s="54"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="54"/>
+      <c r="F137" s="55" t="s">
         <v>680</v>
       </c>
-      <c r="G137" s="51" t="s">
+      <c r="G137" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="H137" s="53"/>
+      <c r="H137" s="53" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="138" spans="2:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="B138" s="52"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="52"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="50" t="s">
+      <c r="B138" s="54"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="54"/>
+      <c r="F138" s="55" t="s">
         <v>682</v>
       </c>
-      <c r="G138" s="51" t="s">
+      <c r="G138" s="17" t="s">
         <v>684</v>
       </c>
-      <c r="H138" s="53"/>
+      <c r="H138" s="53" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="139" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="52"/>
-      <c r="C139" s="58"/>
-      <c r="D139" s="52">
+      <c r="B139" s="54"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="54">
         <v>2</v>
       </c>
-      <c r="E139" s="50" t="s">
+      <c r="E139" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="F139" s="50" t="s">
+      <c r="F139" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="G139" s="51" t="s">
+      <c r="G139" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="H139" s="53"/>
+      <c r="H139" s="53" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="140" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="52"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="51"/>
-      <c r="F140" s="50" t="s">
+      <c r="B140" s="54"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="G140" s="50" t="s">
+      <c r="G140" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="H140" s="53"/>
+      <c r="H140" s="53" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="141" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="52"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="52"/>
-      <c r="E141" s="51"/>
-      <c r="F141" s="50" t="s">
+      <c r="B141" s="54"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="55" t="s">
         <v>554</v>
       </c>
-      <c r="G141" s="51" t="s">
+      <c r="G141" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="H141" s="53"/>
+      <c r="H141" s="53" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="142" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="52"/>
-      <c r="C142" s="58"/>
-      <c r="D142" s="52">
+      <c r="B142" s="54"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="54">
         <v>3</v>
       </c>
-      <c r="E142" s="51" t="s">
+      <c r="E142" s="17" t="s">
         <v>685</v>
       </c>
-      <c r="F142" s="50" t="s">
+      <c r="F142" s="55" t="s">
         <v>686</v>
       </c>
-      <c r="G142" s="50" t="s">
+      <c r="G142" s="55" t="s">
         <v>687</v>
       </c>
-      <c r="H142" s="53"/>
+      <c r="H142" s="53" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="143" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="52"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="52"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50" t="s">
+      <c r="B143" s="54"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="54"/>
+      <c r="F143" s="55" t="s">
         <v>688</v>
       </c>
-      <c r="G143" s="50" t="s">
+      <c r="G143" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="H143" s="53" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="54"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="54"/>
+      <c r="F144" s="55" t="s">
+        <v>697</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="H144" s="53" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="54"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="54">
+        <v>4</v>
+      </c>
+      <c r="E145" s="55" t="s">
+        <v>710</v>
+      </c>
+      <c r="G145" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="H145" s="53" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="54"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="54"/>
+      <c r="F146" s="66" t="s">
+        <v>747</v>
+      </c>
+      <c r="G146" s="66" t="s">
+        <v>731</v>
+      </c>
+      <c r="H146" s="62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="54"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="54"/>
+      <c r="F147" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="G147" s="66" t="s">
+        <v>732</v>
+      </c>
+      <c r="H147" s="62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="54"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="54"/>
+      <c r="F148" s="66" t="s">
+        <v>741</v>
+      </c>
+      <c r="G148" s="66" t="s">
+        <v>734</v>
+      </c>
+      <c r="H148" s="62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="54"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="54"/>
+      <c r="F149" s="66" t="s">
+        <v>742</v>
+      </c>
+      <c r="G149" s="66" t="s">
+        <v>735</v>
+      </c>
+      <c r="H149" s="62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="54"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="54"/>
+      <c r="F150" s="66" t="s">
+        <v>743</v>
+      </c>
+      <c r="G150" s="66" t="s">
+        <v>736</v>
+      </c>
+      <c r="H150" s="62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="54"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="54"/>
+      <c r="F151" s="66" t="s">
+        <v>744</v>
+      </c>
+      <c r="G151" s="66" t="s">
+        <v>737</v>
+      </c>
+      <c r="H151" s="62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="54"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="54"/>
+      <c r="F152" s="66" t="s">
+        <v>745</v>
+      </c>
+      <c r="G152" s="66" t="s">
+        <v>738</v>
+      </c>
+      <c r="H152" s="62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="54"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="54"/>
+      <c r="F153" s="66" t="s">
+        <v>746</v>
+      </c>
+      <c r="G153" s="66" t="s">
+        <v>739</v>
+      </c>
+      <c r="H153" s="62" t="s">
+        <v>754</v>
+      </c>
+      <c r="I153" s="55">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="54"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="54">
+        <v>5</v>
+      </c>
+      <c r="E154" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="H143" s="53"/>
-    </row>
-    <row r="144" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="52"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50" t="s">
-        <v>697</v>
-      </c>
-      <c r="G144" s="51" t="s">
-        <v>690</v>
-      </c>
-      <c r="H144" s="53"/>
-    </row>
-    <row r="145" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="52"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="52">
-        <v>4</v>
-      </c>
-      <c r="E145" s="50" t="s">
+      <c r="G154" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="H154" s="53" t="s">
+        <v>729</v>
+      </c>
+      <c r="I154" s="55">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="54"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="54"/>
+      <c r="F155" s="66" t="s">
+        <v>747</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="H155" s="62" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="54"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="54"/>
+      <c r="F156" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="H156" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="54"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="54"/>
+      <c r="F157" s="66" t="s">
+        <v>741</v>
+      </c>
+      <c r="G157" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="H157" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="54"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="54"/>
+      <c r="F158" s="66" t="s">
+        <v>742</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="H158" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="54"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="54"/>
+      <c r="F159" s="66" t="s">
+        <v>743</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="H159" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="54"/>
+      <c r="C160" s="18"/>
+      <c r="F160" s="66" t="s">
+        <v>744</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="H160" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="54"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="54"/>
+      <c r="F161" s="66" t="s">
+        <v>745</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="H161" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="54"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="54"/>
+      <c r="F162" s="66" t="s">
+        <v>746</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="H162" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="54"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="54">
+        <v>6</v>
+      </c>
+      <c r="E163" s="55" t="s">
         <v>712</v>
       </c>
-      <c r="F145" s="50"/>
-      <c r="G145" s="51" t="s">
+      <c r="G163" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="H163" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="54"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="54"/>
+      <c r="F164" s="66" t="s">
+        <v>747</v>
+      </c>
+      <c r="G164" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="H164" s="62" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="54"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="54"/>
+      <c r="F165" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="G165" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="H165" s="53" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="54"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="54"/>
+      <c r="F166" s="66" t="s">
+        <v>741</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="H166" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="54"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="54"/>
+      <c r="F167" s="66" t="s">
+        <v>742</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="H167" s="62" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="54"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="54"/>
+      <c r="F168" s="66" t="s">
+        <v>743</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="H168" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="54"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="54"/>
+      <c r="F169" s="66" t="s">
+        <v>744</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="H169" s="62" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="54"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="54"/>
+      <c r="F170" s="66" t="s">
+        <v>745</v>
+      </c>
+      <c r="G170" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="H170" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="54"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="54"/>
+      <c r="F171" s="66" t="s">
+        <v>746</v>
+      </c>
+      <c r="G171" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="H171" s="62" t="s">
+        <v>729</v>
+      </c>
+      <c r="I171" s="55">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="54"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="54">
+        <v>7</v>
+      </c>
+      <c r="E172" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="H145" s="53"/>
-    </row>
-    <row r="146" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="52"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="50"/>
-      <c r="F146" s="50" t="s">
+      <c r="G172" s="55" t="s">
+        <v>717</v>
+      </c>
+      <c r="H172" s="53" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="54"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="54"/>
+      <c r="F173" s="66" t="s">
+        <v>747</v>
+      </c>
+      <c r="G173" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="H173" s="53" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="54"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="54"/>
+      <c r="F174" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="G174" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="G146" s="51" t="s">
+      <c r="H174" s="53" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="54"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="54"/>
+      <c r="F175" s="66" t="s">
+        <v>741</v>
+      </c>
+      <c r="G175" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="H175" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="54"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="54"/>
+      <c r="F176" s="66" t="s">
+        <v>742</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="H176" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="54"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="54"/>
+      <c r="F177" s="66" t="s">
+        <v>743</v>
+      </c>
+      <c r="G177" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="H177" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="54"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="54"/>
+      <c r="F178" s="66" t="s">
+        <v>744</v>
+      </c>
+      <c r="G178" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="H178" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="54"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="54"/>
+      <c r="F179" s="66" t="s">
+        <v>745</v>
+      </c>
+      <c r="G179" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="H179" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="54"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="54"/>
+      <c r="F180" s="66" t="s">
+        <v>746</v>
+      </c>
+      <c r="G180" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="H180" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="54"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="54">
+        <v>8</v>
+      </c>
+      <c r="E181" s="55" t="s">
         <v>716</v>
       </c>
-      <c r="H146" s="53"/>
-    </row>
-    <row r="147" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="52"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="52"/>
-      <c r="E147" s="50"/>
-      <c r="F147" s="50" t="s">
-        <v>715</v>
-      </c>
-      <c r="G147" s="51" t="s">
-        <v>717</v>
-      </c>
-      <c r="H147" s="53"/>
-    </row>
-    <row r="148" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="52"/>
-      <c r="C148" s="58"/>
-      <c r="D148" s="52">
-        <v>5</v>
-      </c>
-      <c r="E148" s="50" t="s">
+      <c r="F181" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="G181" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="F148" s="50"/>
-      <c r="G148" s="51" t="s">
+      <c r="H181" s="53" t="s">
+        <v>752</v>
+      </c>
+      <c r="I181" s="55">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="54"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="54"/>
+      <c r="F182" s="66" t="s">
+        <v>741</v>
+      </c>
+      <c r="G182" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="H148" s="53"/>
-    </row>
-    <row r="149" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="52"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="52"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="50" t="s">
-        <v>714</v>
-      </c>
-      <c r="G149" s="51" t="s">
-        <v>720</v>
-      </c>
-      <c r="H149" s="53"/>
-    </row>
-    <row r="150" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="52"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="52"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="50" t="s">
-        <v>715</v>
-      </c>
-      <c r="G150" s="51" t="s">
-        <v>721</v>
-      </c>
-      <c r="H150" s="53"/>
-    </row>
-    <row r="151" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="52"/>
-      <c r="C151" s="58"/>
-      <c r="D151" s="52">
-        <v>6</v>
-      </c>
-      <c r="E151" s="50" t="s">
-        <v>722</v>
-      </c>
-      <c r="F151" s="50"/>
-      <c r="G151" s="51" t="s">
+      <c r="H182" s="62" t="s">
         <v>723</v>
       </c>
-      <c r="H151" s="53"/>
-    </row>
-    <row r="152" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="52"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="52"/>
-      <c r="E152" s="50"/>
-      <c r="F152" s="50" t="s">
-        <v>714</v>
-      </c>
-      <c r="G152" s="51" t="s">
-        <v>724</v>
-      </c>
-      <c r="H152" s="53"/>
-    </row>
-    <row r="153" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="52"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="52"/>
-      <c r="E153" s="50"/>
-      <c r="F153" s="50" t="s">
-        <v>715</v>
-      </c>
-      <c r="G153" s="51" t="s">
-        <v>725</v>
-      </c>
-      <c r="H153" s="53"/>
-    </row>
-    <row r="154" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="52"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="52">
-        <v>7</v>
-      </c>
-      <c r="E154" s="50" t="s">
-        <v>726</v>
-      </c>
-      <c r="F154" s="50"/>
-      <c r="G154" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="H154" s="53"/>
-    </row>
-    <row r="155" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="52"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="52"/>
-      <c r="E155" s="50"/>
-      <c r="F155" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="G155" s="51" t="s">
-        <v>736</v>
-      </c>
-      <c r="H155" s="53"/>
-    </row>
-    <row r="156" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="52"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="52"/>
-      <c r="E156" s="50"/>
-      <c r="F156" s="50" t="s">
-        <v>728</v>
-      </c>
-      <c r="G156" s="51" t="s">
-        <v>735</v>
-      </c>
-      <c r="H156" s="53"/>
-    </row>
-    <row r="157" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="52"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="52"/>
-      <c r="E157" s="50"/>
-      <c r="F157" s="50" t="s">
+    </row>
+    <row r="183" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="54"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="54"/>
+      <c r="F183" s="66" t="s">
+        <v>742</v>
+      </c>
+      <c r="G183" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="H183" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="54"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="54"/>
+      <c r="F184" s="66" t="s">
+        <v>743</v>
+      </c>
+      <c r="G184" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="H184" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="54"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="54"/>
+      <c r="F185" s="66" t="s">
+        <v>744</v>
+      </c>
+      <c r="G185" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="H185" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="54"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="54"/>
+      <c r="F186" s="66" t="s">
+        <v>745</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="H186" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="54"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="54"/>
+      <c r="F187" s="66" t="s">
+        <v>746</v>
+      </c>
+      <c r="G187" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="H187" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="54"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="54">
+        <v>9</v>
+      </c>
+      <c r="E188" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="F188" s="17"/>
+      <c r="G188" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="H188" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="54"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="54">
+        <v>10</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F189" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="G189" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H189" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="54"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="54"/>
+      <c r="F190" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="G190" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="H190" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="54"/>
+      <c r="C191" s="18"/>
+      <c r="H191" s="53"/>
+    </row>
+    <row r="192" spans="2:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="B192" s="54" t="s">
+        <v>692</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="D192" s="54">
+        <v>1</v>
+      </c>
+      <c r="E192" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="G192" s="55" t="s">
+        <v>698</v>
+      </c>
+      <c r="H192" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="54"/>
+      <c r="C193" s="18"/>
+      <c r="F193" s="55" t="s">
+        <v>699</v>
+      </c>
+      <c r="G193" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="H193" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="54"/>
+      <c r="C194" s="18"/>
+      <c r="F194" s="55" t="s">
+        <v>701</v>
+      </c>
+      <c r="G194" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="H194" s="53" t="s">
+        <v>752</v>
+      </c>
+      <c r="I194" s="55">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="54"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="55" t="s">
+        <v>700</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="H195" s="53" t="s">
         <v>729</v>
       </c>
-      <c r="G157" s="51" t="s">
-        <v>735</v>
-      </c>
-      <c r="H157" s="53"/>
-    </row>
-    <row r="158" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="52"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="52"/>
-      <c r="E158" s="50"/>
-      <c r="F158" s="50" t="s">
-        <v>730</v>
-      </c>
-      <c r="G158" s="51" t="s">
-        <v>735</v>
-      </c>
-      <c r="H158" s="53"/>
-    </row>
-    <row r="159" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="52"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="52"/>
-      <c r="E159" s="50"/>
-      <c r="F159" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="G159" s="51" t="s">
-        <v>735</v>
-      </c>
-      <c r="H159" s="53"/>
-    </row>
-    <row r="160" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="52"/>
-      <c r="C160" s="58"/>
-      <c r="D160" s="52"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="50" t="s">
-        <v>732</v>
-      </c>
-      <c r="G160" s="51" t="s">
-        <v>735</v>
-      </c>
-      <c r="H160" s="53"/>
-    </row>
-    <row r="161" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="52"/>
-      <c r="C161" s="58"/>
-      <c r="D161" s="52"/>
-      <c r="E161" s="50"/>
-      <c r="F161" s="50" t="s">
-        <v>733</v>
-      </c>
-      <c r="G161" s="51" t="s">
-        <v>735</v>
-      </c>
-      <c r="H161" s="53"/>
-    </row>
-    <row r="162" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="52"/>
-      <c r="C162" s="58"/>
-      <c r="D162" s="52"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="50" t="s">
-        <v>734</v>
-      </c>
-      <c r="G162" s="51" t="s">
-        <v>735</v>
-      </c>
-      <c r="H162" s="53"/>
-    </row>
-    <row r="163" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="52"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="52">
-        <v>8</v>
-      </c>
-      <c r="E163" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="F163" s="50" t="s">
-        <v>728</v>
-      </c>
-      <c r="G163" s="51" t="s">
-        <v>739</v>
-      </c>
-      <c r="H163" s="53"/>
-    </row>
-    <row r="164" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="52"/>
-      <c r="C164" s="58"/>
-      <c r="D164" s="52"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="G164" s="51" t="s">
-        <v>740</v>
-      </c>
-      <c r="H164" s="53"/>
-    </row>
-    <row r="165" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="52"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="52"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="50" t="s">
-        <v>730</v>
-      </c>
-      <c r="G165" s="51" t="s">
-        <v>740</v>
-      </c>
-      <c r="H165" s="53"/>
-    </row>
-    <row r="166" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="52"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="52"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="G166" s="51" t="s">
-        <v>740</v>
-      </c>
-      <c r="H166" s="53"/>
-    </row>
-    <row r="167" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="52"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="52"/>
-      <c r="E167" s="50"/>
-      <c r="F167" s="50" t="s">
-        <v>732</v>
-      </c>
-      <c r="G167" s="51" t="s">
-        <v>740</v>
-      </c>
-      <c r="H167" s="53"/>
-    </row>
-    <row r="168" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="52"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="52"/>
-      <c r="E168" s="50"/>
-      <c r="F168" s="50" t="s">
-        <v>733</v>
-      </c>
-      <c r="G168" s="51" t="s">
-        <v>740</v>
-      </c>
-      <c r="H168" s="53"/>
-    </row>
-    <row r="169" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="52"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="52"/>
-      <c r="E169" s="50"/>
-      <c r="F169" s="50" t="s">
-        <v>734</v>
-      </c>
-      <c r="G169" s="51" t="s">
-        <v>740</v>
-      </c>
-      <c r="H169" s="53"/>
-    </row>
-    <row r="170" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="52"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="52">
-        <v>9</v>
-      </c>
-      <c r="E170" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="F170" s="51"/>
-      <c r="G170" s="51" t="s">
-        <v>689</v>
-      </c>
-      <c r="H170" s="53"/>
-    </row>
-    <row r="171" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="52"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="52">
-        <v>10</v>
-      </c>
-      <c r="E171" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="F171" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="G171" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="H171" s="53"/>
-    </row>
-    <row r="172" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="52"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="52"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="G172" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="H172" s="53"/>
-    </row>
-    <row r="173" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="52"/>
-      <c r="C173" s="58"/>
-      <c r="D173" s="50"/>
-      <c r="E173" s="50"/>
-      <c r="F173" s="50"/>
-      <c r="G173" s="50"/>
-      <c r="H173" s="53"/>
-    </row>
-    <row r="174" spans="2:8" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="B174" s="52" t="s">
-        <v>692</v>
-      </c>
-      <c r="C174" s="58" t="s">
-        <v>691</v>
-      </c>
-      <c r="D174" s="52">
+    </row>
+    <row r="196" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="54"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="54">
+        <v>2</v>
+      </c>
+      <c r="E196" s="55" t="s">
+        <v>703</v>
+      </c>
+      <c r="G196" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="H196" s="53" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="B197" s="54"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="G197" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="H197" s="53" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="B198" s="54"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="54"/>
+      <c r="F198" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="G198" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="H198" s="53" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C199" s="8"/>
+      <c r="H199" s="39"/>
+    </row>
+    <row r="200" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="35"/>
+      <c r="B200" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D200" s="6">
         <v>1</v>
       </c>
-      <c r="E174" s="51" t="s">
-        <v>702</v>
-      </c>
-      <c r="F174" s="50"/>
-      <c r="G174" s="50" t="s">
-        <v>698</v>
-      </c>
-      <c r="H174" s="53"/>
-    </row>
-    <row r="175" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="52"/>
-      <c r="C175" s="58"/>
-      <c r="D175" s="50"/>
-      <c r="E175" s="50"/>
-      <c r="F175" s="50" t="s">
-        <v>699</v>
-      </c>
-      <c r="G175" s="51" t="s">
-        <v>703</v>
-      </c>
-      <c r="H175" s="53"/>
-    </row>
-    <row r="176" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="52"/>
-      <c r="C176" s="58"/>
-      <c r="D176" s="50"/>
-      <c r="E176" s="50"/>
-      <c r="F176" s="50" t="s">
-        <v>701</v>
-      </c>
-      <c r="G176" s="51" t="s">
-        <v>703</v>
-      </c>
-      <c r="H176" s="53"/>
-    </row>
-    <row r="177" spans="1:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="B177" s="52"/>
-      <c r="C177" s="58"/>
-      <c r="D177" s="52"/>
-      <c r="E177" s="51"/>
-      <c r="F177" s="50" t="s">
-        <v>700</v>
-      </c>
-      <c r="G177" s="51" t="s">
-        <v>704</v>
-      </c>
-      <c r="H177" s="53"/>
-    </row>
-    <row r="178" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="52"/>
-      <c r="C178" s="58"/>
-      <c r="D178" s="52">
-        <v>2</v>
-      </c>
-      <c r="E178" s="50" t="s">
-        <v>705</v>
-      </c>
-      <c r="F178" s="50"/>
-      <c r="G178" s="51" t="s">
-        <v>706</v>
-      </c>
-      <c r="H178" s="53"/>
-    </row>
-    <row r="179" spans="1:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="B179" s="52"/>
-      <c r="C179" s="58"/>
-      <c r="D179" s="52"/>
-      <c r="E179" s="51"/>
-      <c r="F179" s="51" t="s">
-        <v>707</v>
-      </c>
-      <c r="G179" s="51" t="s">
-        <v>708</v>
-      </c>
-      <c r="H179" s="53"/>
-    </row>
-    <row r="180" spans="1:9" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="B180" s="52"/>
-      <c r="C180" s="58"/>
-      <c r="D180" s="52"/>
-      <c r="E180" s="50"/>
-      <c r="F180" s="51" t="s">
-        <v>709</v>
-      </c>
-      <c r="G180" s="51" t="s">
-        <v>710</v>
-      </c>
-      <c r="H180" s="53"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C181" s="8"/>
-      <c r="H181" s="39"/>
-    </row>
-    <row r="182" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
-      <c r="B182" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D182" s="6">
-        <v>1</v>
-      </c>
-      <c r="E182" s="5" t="s">
+      <c r="E200" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F200" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G182" s="7" t="s">
+      <c r="G200" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="H182" s="39" t="s">
+      <c r="H200" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="I182" s="36">
+      <c r="I200" s="36">
         <v>918</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="35"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="7" t="s">
+    <row r="201" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="35"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G183" s="7" t="s">
+      <c r="G201" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="H183" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H184" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="35"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H185" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="35"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6">
-        <v>2</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="H186" s="39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="35"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="52">
-        <v>3</v>
-      </c>
-      <c r="E187" s="50" t="s">
-        <v>741</v>
-      </c>
-      <c r="F187" s="51"/>
-      <c r="G187" s="51" t="s">
-        <v>742</v>
-      </c>
-      <c r="H187" s="39"/>
-    </row>
-    <row r="188" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="35"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="59">
-        <v>3</v>
-      </c>
-      <c r="E188" s="60" t="s">
-        <v>462</v>
-      </c>
-      <c r="F188" s="61"/>
-      <c r="G188" s="61" t="s">
-        <v>463</v>
-      </c>
-      <c r="H188" s="39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="35"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="59"/>
-      <c r="E189" s="60"/>
-      <c r="F189" s="61" t="s">
-        <v>448</v>
-      </c>
-      <c r="G189" s="61" t="s">
-        <v>440</v>
-      </c>
-      <c r="H189" s="39" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="35"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="59"/>
-      <c r="E190" s="60"/>
-      <c r="F190" s="61" t="s">
-        <v>441</v>
-      </c>
-      <c r="G190" s="61" t="s">
-        <v>453</v>
-      </c>
-      <c r="H190" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="I190" s="36">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="59">
-        <v>4</v>
-      </c>
-      <c r="E191" s="60" t="s">
-        <v>456</v>
-      </c>
-      <c r="F191" s="61"/>
-      <c r="G191" s="61" t="s">
-        <v>455</v>
-      </c>
-      <c r="H191" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="A192" s="35"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="59"/>
-      <c r="E192" s="60"/>
-      <c r="F192" s="61" t="s">
-        <v>442</v>
-      </c>
-      <c r="G192" s="61" t="s">
-        <v>523</v>
-      </c>
-      <c r="H192" s="39" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="35"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="65">
-        <v>5</v>
-      </c>
-      <c r="E193" s="66" t="s">
-        <v>464</v>
-      </c>
-      <c r="F193" s="56" t="s">
-        <v>458</v>
-      </c>
-      <c r="G193" s="56" t="s">
-        <v>469</v>
-      </c>
-      <c r="H193" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="35"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="65"/>
-      <c r="E194" s="66"/>
-      <c r="F194" s="56" t="s">
-        <v>459</v>
-      </c>
-      <c r="G194" s="56" t="s">
-        <v>461</v>
-      </c>
-      <c r="H194" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="35"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6">
-        <v>6</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="H195" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="35"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6">
-        <v>7</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H196" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="35"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="F197" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H197" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D198" s="6">
-        <v>8</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="H198" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F199" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="H199" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F200" s="7"/>
-      <c r="H200" s="39"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D201" s="6">
-        <v>1</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="H201" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="I201" s="5">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="35"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="5"/>
       <c r="F202" s="7" t="s">
-        <v>551</v>
+        <v>438</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>553</v>
+        <v>445</v>
       </c>
       <c r="H202" s="39" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="35"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="5"/>
       <c r="F203" s="7" t="s">
-        <v>552</v>
+        <v>446</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>553</v>
+        <v>439</v>
       </c>
       <c r="H203" s="39" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="35"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6">
+        <v>2</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="F204" s="7"/>
-    </row>
-    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F205" s="36"/>
-    </row>
-    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F206" s="36"/>
-      <c r="G206" s="62">
+      <c r="G204" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H204" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="35"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="52">
+        <v>3</v>
+      </c>
+      <c r="E205" s="50" t="s">
+        <v>720</v>
+      </c>
+      <c r="F205" s="51"/>
+      <c r="G205" s="51" t="s">
+        <v>721</v>
+      </c>
+      <c r="H205" s="39"/>
+    </row>
+    <row r="206" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="35"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="58">
+        <v>3</v>
+      </c>
+      <c r="E206" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="F206" s="60"/>
+      <c r="G206" s="60" t="s">
+        <v>463</v>
+      </c>
+      <c r="H206" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="35"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="58"/>
+      <c r="E207" s="59"/>
+      <c r="F207" s="60" t="s">
+        <v>448</v>
+      </c>
+      <c r="G207" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="H207" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="35"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="58"/>
+      <c r="E208" s="59"/>
+      <c r="F208" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G208" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="H208" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="I208" s="36">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="35"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="58">
+        <v>4</v>
+      </c>
+      <c r="E209" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="F209" s="60"/>
+      <c r="G209" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="H209" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="A210" s="35"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="59"/>
+      <c r="F210" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="G210" s="60" t="s">
+        <v>523</v>
+      </c>
+      <c r="H210" s="39" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="35"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="63">
+        <v>5</v>
+      </c>
+      <c r="E211" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="F211" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="G211" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="H211" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="35"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="63"/>
+      <c r="E212" s="64"/>
+      <c r="F212" s="56" t="s">
+        <v>459</v>
+      </c>
+      <c r="G212" s="56" t="s">
+        <v>461</v>
+      </c>
+      <c r="H212" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="35"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6">
+        <v>6</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H213" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="35"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6">
+        <v>7</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H214" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A215" s="35"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="F215" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H215" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D216" s="6">
+        <v>8</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H216" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F217" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H217" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F218" s="7"/>
+      <c r="H218" s="39"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D219" s="6">
+        <v>1</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H219" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="I219" s="5">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F220" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H220" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F221" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H221" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F222" s="7"/>
+    </row>
+    <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F223" s="36"/>
+    </row>
+    <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F224" s="36"/>
+      <c r="G224" s="61">
         <v>100200</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F207" s="36"/>
-    </row>
-    <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F208" s="36"/>
-    </row>
-    <row r="209" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F209" s="36"/>
-    </row>
-    <row r="210" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F210" s="36"/>
-    </row>
-    <row r="211" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F211" s="36"/>
-    </row>
-    <row r="212" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F212" s="36"/>
-    </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F213" s="7"/>
-    </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F214" s="7"/>
-    </row>
-    <row r="215" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F215" s="36"/>
-    </row>
-    <row r="216" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F216" s="36"/>
-    </row>
-    <row r="217" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="F217" s="36"/>
+    <row r="225" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F225" s="36"/>
+    </row>
+    <row r="226" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F226" s="36"/>
+    </row>
+    <row r="227" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F227" s="36"/>
+    </row>
+    <row r="228" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F228" s="36"/>
+    </row>
+    <row r="229" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F229" s="36"/>
+    </row>
+    <row r="230" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F230" s="36"/>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F231" s="7"/>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F232" s="7"/>
+    </row>
+    <row r="233" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F233" s="36"/>
+    </row>
+    <row r="234" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F234" s="36"/>
+    </row>
+    <row r="235" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F235" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9400,7 +10212,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H118 H122:H200">
+  <conditionalFormatting sqref="H4:H118 H122:H218">
     <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -9444,7 +10256,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H201:H203">
+  <conditionalFormatting sqref="H219:H221">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -9492,9 +10304,9 @@
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -10326,15 +11138,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.08984375" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" customWidth="1"/>
-    <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="3" width="89.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
@@ -10511,70 +11323,292 @@
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
     </row>
-    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="39"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D23" s="39"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D25" s="39"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D26" s="39"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="39"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D28" s="39"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D29" s="39"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D30" s="39"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D31" s="39"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D32" s="39"/>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="48" t="s">
+        <v>806</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>759</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>760</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="48" t="s">
+        <v>761</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>762</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="48" t="s">
+        <v>763</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>764</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>767</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>769</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="48" t="s">
+        <v>770</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>772</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="48" t="s">
+        <v>773</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>775</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="48" t="s">
+        <v>776</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>778</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="H23" s="48"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="48" t="s">
+        <v>779</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>781</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>784</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="48" t="s">
+        <v>785</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>787</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="48" t="s">
+        <v>788</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>790</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>793</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="48" t="s">
+        <v>794</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>796</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="48" t="s">
+        <v>797</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>799</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="48" t="s">
+        <v>800</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>802</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="48" t="s">
+        <v>803</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>805</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="4:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="D33" s="39"/>
@@ -10616,6 +11650,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
